--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73345</v>
+        <v>66219</v>
       </c>
       <c r="C2" t="n">
-        <v>5641.968500000001</v>
+        <v>4978.75</v>
       </c>
       <c r="D2" t="n">
-        <v>67703.0315</v>
+        <v>61240.25</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>70281</v>
+        <v>64309</v>
       </c>
       <c r="C3" t="n">
-        <v>5490.19275</v>
+        <v>4881.803465346536</v>
       </c>
       <c r="D3" t="n">
-        <v>64790.80725</v>
+        <v>59427.19653465346</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67715</v>
+        <v>62149</v>
       </c>
       <c r="C4" t="n">
-        <v>5406.366</v>
+        <v>4806.189603960396</v>
       </c>
       <c r="D4" t="n">
-        <v>62308.634</v>
+        <v>57342.8103960396</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>65991</v>
+        <v>60657</v>
       </c>
       <c r="C5" t="n">
-        <v>5371.681</v>
+        <v>4777.004455445544</v>
       </c>
       <c r="D5" t="n">
-        <v>60619.319</v>
+        <v>55879.99554455445</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67561</v>
+        <v>62958</v>
       </c>
       <c r="C6" t="n">
-        <v>5318.97625</v>
+        <v>4817.022277227723</v>
       </c>
       <c r="D6" t="n">
-        <v>62242.02375</v>
+        <v>58140.97772277228</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>71292</v>
+        <v>65273</v>
       </c>
       <c r="C7" t="n">
-        <v>5408.019749999999</v>
+        <v>4993.585148514851</v>
       </c>
       <c r="D7" t="n">
-        <v>65883.98025000001</v>
+        <v>60279.41485148515</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69587</v>
+        <v>64219</v>
       </c>
       <c r="C8" t="n">
-        <v>5902.232</v>
+        <v>5791.976732673267</v>
       </c>
       <c r="D8" t="n">
-        <v>63684.768</v>
+        <v>58427.02326732673</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>80654</v>
+        <v>62558</v>
       </c>
       <c r="C9" t="n">
-        <v>7337.83225</v>
+        <v>6508.679702970297</v>
       </c>
       <c r="D9" t="n">
-        <v>73316.16774999999</v>
+        <v>56049.32029702971</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>97530</v>
+        <v>92325</v>
       </c>
       <c r="C10" t="n">
-        <v>8426.187000000002</v>
+        <v>8013.319306930694</v>
       </c>
       <c r="D10" t="n">
-        <v>89103.81299999999</v>
+        <v>84311.6806930693</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>108792</v>
+        <v>104189</v>
       </c>
       <c r="C11" t="n">
-        <v>13930.83825</v>
+        <v>13327.75396039604</v>
       </c>
       <c r="D11" t="n">
-        <v>94861.16175</v>
+        <v>90861.24603960395</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>112675</v>
+        <v>87429</v>
       </c>
       <c r="C12" t="n">
-        <v>15876.8085</v>
+        <v>14912.39801980198</v>
       </c>
       <c r="D12" t="n">
-        <v>96798.1915</v>
+        <v>72516.60198019801</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>114791</v>
+        <v>88764</v>
       </c>
       <c r="C13" t="n">
-        <v>15790.39175</v>
+        <v>14866.84603960396</v>
       </c>
       <c r="D13" t="n">
-        <v>99000.60825</v>
+        <v>73897.15396039604</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>114493</v>
+        <v>69428</v>
       </c>
       <c r="C14" t="n">
-        <v>15707.13375</v>
+        <v>15166.13415841584</v>
       </c>
       <c r="D14" t="n">
-        <v>98785.86624999999</v>
+        <v>54261.86584158416</v>
       </c>
     </row>
     <row r="15">
@@ -630,55 +630,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>117436</v>
+        <v>56205</v>
       </c>
       <c r="C15" t="n">
-        <v>15725.78525</v>
+        <v>15342.26732673267</v>
       </c>
       <c r="D15" t="n">
-        <v>101710.21475</v>
+        <v>40862.73267326733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>116564</v>
-      </c>
       <c r="C16" t="n">
-        <v>15851.95675</v>
+        <v>15647.49851485148</v>
       </c>
       <c r="D16" t="n">
-        <v>100712.04325</v>
+        <v>58895.0615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>97223</v>
-      </c>
       <c r="C17" t="n">
-        <v>16175.89925</v>
+        <v>15775.31782178218</v>
       </c>
       <c r="D17" t="n">
-        <v>81047.10075</v>
+        <v>56450.1975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>34440</v>
-      </c>
       <c r="C18" t="n">
-        <v>16564.009</v>
+        <v>16246.4004950495</v>
       </c>
       <c r="D18" t="n">
-        <v>17875.991</v>
+        <v>67467.57000000001</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +677,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16344.52925</v>
+        <v>15938.57376237624</v>
       </c>
       <c r="D19" t="n">
-        <v>91169.15700000001</v>
+        <v>72066.9185</v>
       </c>
     </row>
     <row r="20">
@@ -697,10 +688,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15734.6105</v>
+        <v>15549.6094059406</v>
       </c>
       <c r="D20" t="n">
-        <v>91330.5615</v>
+        <v>74173.3315</v>
       </c>
     </row>
     <row r="21">
@@ -708,10 +699,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13838.8285</v>
+        <v>13984.29504950495</v>
       </c>
       <c r="D21" t="n">
-        <v>69126.9225</v>
+        <v>72400.7075</v>
       </c>
     </row>
     <row r="22">
@@ -719,10 +710,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12297.75575</v>
+        <v>12412.51089108911</v>
       </c>
       <c r="D22" t="n">
-        <v>85637.912</v>
+        <v>70217.473</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +721,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9867.945500000002</v>
+        <v>9434.527227722774</v>
       </c>
       <c r="D23" t="n">
-        <v>83045.7395</v>
+        <v>21309.33</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +732,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6893.563249999999</v>
+        <v>6390.105940594059</v>
       </c>
       <c r="D24" t="n">
-        <v>62070.815</v>
+        <v>69506.016</v>
       </c>
     </row>
     <row r="25">
@@ -752,7 +743,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6008.644249999999</v>
+        <v>5462.339108910891</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44605.08100000001</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>66219</v>
+        <v>68377</v>
       </c>
       <c r="C2" t="n">
-        <v>4978.75</v>
+        <v>5373.441499999999</v>
       </c>
       <c r="D2" t="n">
-        <v>61240.25</v>
+        <v>63003.5585</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64309</v>
+        <v>65754</v>
       </c>
       <c r="C3" t="n">
-        <v>4881.803465346536</v>
+        <v>5250.357</v>
       </c>
       <c r="D3" t="n">
-        <v>59427.19653465346</v>
+        <v>60503.643</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62149</v>
+        <v>63452</v>
       </c>
       <c r="C4" t="n">
-        <v>4806.189603960396</v>
+        <v>5171.886999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>57342.8103960396</v>
+        <v>58280.113</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60657</v>
+        <v>61778</v>
       </c>
       <c r="C5" t="n">
-        <v>4777.004455445544</v>
+        <v>5107.980499999999</v>
       </c>
       <c r="D5" t="n">
-        <v>55879.99554455445</v>
+        <v>56670.0195</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62958</v>
+        <v>63701</v>
       </c>
       <c r="C6" t="n">
-        <v>4817.022277227723</v>
+        <v>5104.393</v>
       </c>
       <c r="D6" t="n">
-        <v>58140.97772277228</v>
+        <v>58596.607</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>65273</v>
+        <v>66921</v>
       </c>
       <c r="C7" t="n">
-        <v>4993.585148514851</v>
+        <v>5230.476999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>60279.41485148515</v>
+        <v>61690.523</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>64219</v>
+        <v>65559</v>
       </c>
       <c r="C8" t="n">
-        <v>5791.976732673267</v>
+        <v>5902.879499999999</v>
       </c>
       <c r="D8" t="n">
-        <v>58427.02326732673</v>
+        <v>59656.1205</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62558</v>
+        <v>77302</v>
       </c>
       <c r="C9" t="n">
-        <v>6508.679702970297</v>
+        <v>7037.001999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>56049.32029702971</v>
+        <v>70264.99800000001</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>92325</v>
+        <v>94353</v>
       </c>
       <c r="C10" t="n">
-        <v>8013.319306930694</v>
+        <v>8592.440500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>84311.6806930693</v>
+        <v>85760.5595</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>104189</v>
+        <v>84696</v>
       </c>
       <c r="C11" t="n">
-        <v>13327.75396039604</v>
+        <v>14095.0215</v>
       </c>
       <c r="D11" t="n">
-        <v>90861.24603960395</v>
+        <v>70600.9785</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>87429</v>
+        <v>105351</v>
       </c>
       <c r="C12" t="n">
-        <v>14912.39801980198</v>
+        <v>15828.8445</v>
       </c>
       <c r="D12" t="n">
-        <v>72516.60198019801</v>
+        <v>89522.15549999999</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>88764</v>
+        <v>106616</v>
       </c>
       <c r="C13" t="n">
-        <v>14866.84603960396</v>
+        <v>15449.287</v>
       </c>
       <c r="D13" t="n">
-        <v>73897.15396039604</v>
+        <v>91166.713</v>
       </c>
     </row>
     <row r="14">
@@ -616,27 +616,24 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>69428</v>
+        <v>105965</v>
       </c>
       <c r="C14" t="n">
-        <v>15166.13415841584</v>
+        <v>15803.2595</v>
       </c>
       <c r="D14" t="n">
-        <v>54261.86584158416</v>
+        <v>90161.7405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>56205</v>
-      </c>
       <c r="C15" t="n">
-        <v>15342.26732673267</v>
+        <v>15862.028</v>
       </c>
       <c r="D15" t="n">
-        <v>40862.73267326733</v>
+        <v>74053.73267326732</v>
       </c>
     </row>
     <row r="16">
@@ -644,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15647.49851485148</v>
+        <v>16032.3205</v>
       </c>
       <c r="D16" t="n">
-        <v>58895.0615</v>
+        <v>95771.50148514852</v>
       </c>
     </row>
     <row r="17">
@@ -655,10 +652,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>15775.31782178218</v>
+        <v>16559.4275</v>
       </c>
       <c r="D17" t="n">
-        <v>56450.1975</v>
+        <v>84547.68217821782</v>
       </c>
     </row>
     <row r="18">
@@ -666,10 +663,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16246.4004950495</v>
+        <v>16683.57249999999</v>
       </c>
       <c r="D18" t="n">
-        <v>67467.57000000001</v>
+        <v>59953.5995049505</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15938.57376237624</v>
+        <v>16252.82049999999</v>
       </c>
       <c r="D19" t="n">
         <v>72066.9185</v>
@@ -688,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15549.6094059406</v>
+        <v>15546.958</v>
       </c>
       <c r="D20" t="n">
         <v>74173.3315</v>
@@ -699,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13984.29504950495</v>
+        <v>13748.4165</v>
       </c>
       <c r="D21" t="n">
         <v>72400.7075</v>
@@ -710,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12412.51089108911</v>
+        <v>12030.7215</v>
       </c>
       <c r="D22" t="n">
         <v>70217.473</v>
@@ -721,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9434.527227722774</v>
+        <v>9319.645999999999</v>
       </c>
       <c r="D23" t="n">
         <v>21309.33</v>
@@ -732,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6390.105940594059</v>
+        <v>6308.333499999995</v>
       </c>
       <c r="D24" t="n">
         <v>69506.016</v>
@@ -743,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5462.339108910891</v>
+        <v>5687.261999999999</v>
       </c>
       <c r="D25" t="n">
         <v>44605.08100000001</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>84696</v>
+        <v>103695</v>
       </c>
       <c r="C11" t="n">
         <v>14095.0215</v>
       </c>
       <c r="D11" t="n">
-        <v>70600.9785</v>
+        <v>89599.9785</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>105351</v>
+        <v>107380</v>
       </c>
       <c r="C12" t="n">
         <v>15828.8445</v>
       </c>
       <c r="D12" t="n">
-        <v>89522.15549999999</v>
+        <v>91551.15549999999</v>
       </c>
     </row>
     <row r="13">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>106616</v>
+        <v>108706</v>
       </c>
       <c r="C13" t="n">
         <v>15449.287</v>
       </c>
       <c r="D13" t="n">
-        <v>91166.713</v>
+        <v>93256.713</v>
       </c>
     </row>
     <row r="14">
@@ -616,46 +616,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>105965</v>
+        <v>108006</v>
       </c>
       <c r="C14" t="n">
         <v>15803.2595</v>
       </c>
       <c r="D14" t="n">
-        <v>90161.7405</v>
+        <v>92202.7405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>83578</v>
+      </c>
       <c r="C15" t="n">
         <v>15862.028</v>
       </c>
       <c r="D15" t="n">
-        <v>74053.73267326732</v>
+        <v>67715.97199999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>83212</v>
+      </c>
       <c r="C16" t="n">
         <v>16032.3205</v>
       </c>
       <c r="D16" t="n">
-        <v>95771.50148514852</v>
+        <v>67179.6795</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>79873</v>
+      </c>
       <c r="C17" t="n">
         <v>16559.4275</v>
       </c>
       <c r="D17" t="n">
-        <v>84547.68217821782</v>
+        <v>63313.57249999999</v>
       </c>
     </row>
     <row r="18">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>68377</v>
+        <v>72552</v>
       </c>
       <c r="C2" t="n">
-        <v>5373.441499999999</v>
+        <v>5181.7654555205</v>
       </c>
       <c r="D2" t="n">
-        <v>63003.5585</v>
+        <v>67370.23454447951</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>65754</v>
+        <v>69488</v>
       </c>
       <c r="C3" t="n">
-        <v>5250.357</v>
+        <v>5107.462723152999</v>
       </c>
       <c r="D3" t="n">
-        <v>60503.643</v>
+        <v>64380.537276847</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63452</v>
+        <v>66646</v>
       </c>
       <c r="C4" t="n">
-        <v>5171.886999999999</v>
+        <v>5078.246477696</v>
       </c>
       <c r="D4" t="n">
-        <v>58280.113</v>
+        <v>61567.753522304</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61778</v>
+        <v>64895</v>
       </c>
       <c r="C5" t="n">
-        <v>5107.980499999999</v>
+        <v>5023.9429180395</v>
       </c>
       <c r="D5" t="n">
-        <v>56670.0195</v>
+        <v>59871.0570819605</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63701</v>
+        <v>65868</v>
       </c>
       <c r="C6" t="n">
-        <v>5104.393</v>
+        <v>5058.781000903</v>
       </c>
       <c r="D6" t="n">
-        <v>58596.607</v>
+        <v>60809.218999097</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>66921</v>
+        <v>69024</v>
       </c>
       <c r="C7" t="n">
-        <v>5230.476999999999</v>
+        <v>5188.476321084</v>
       </c>
       <c r="D7" t="n">
-        <v>61690.523</v>
+        <v>63835.523678916</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>65559</v>
+        <v>68453</v>
       </c>
       <c r="C8" t="n">
-        <v>5902.879499999999</v>
+        <v>5625.926671169</v>
       </c>
       <c r="D8" t="n">
-        <v>59656.1205</v>
+        <v>62827.073328831</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>77302</v>
+        <v>83421</v>
       </c>
       <c r="C9" t="n">
-        <v>7037.001999999999</v>
+        <v>6893.515125000001</v>
       </c>
       <c r="D9" t="n">
-        <v>70264.99800000001</v>
+        <v>76527.48487499999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>94353</v>
+        <v>98124</v>
       </c>
       <c r="C10" t="n">
-        <v>8592.440500000001</v>
+        <v>8247.303470000001</v>
       </c>
       <c r="D10" t="n">
-        <v>85760.5595</v>
+        <v>89876.69653</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>103695</v>
+        <v>109037</v>
       </c>
       <c r="C11" t="n">
-        <v>14095.0215</v>
+        <v>13588.08752</v>
       </c>
       <c r="D11" t="n">
-        <v>89599.9785</v>
+        <v>95448.91248</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>107380</v>
+        <v>112156</v>
       </c>
       <c r="C12" t="n">
-        <v>15828.8445</v>
+        <v>15423.293375</v>
       </c>
       <c r="D12" t="n">
-        <v>91551.15549999999</v>
+        <v>96732.70662500001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>108706</v>
+        <v>111068</v>
       </c>
       <c r="C13" t="n">
-        <v>15449.287</v>
+        <v>15250.37885</v>
       </c>
       <c r="D13" t="n">
-        <v>93256.713</v>
+        <v>95817.62115000001</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>108006</v>
+        <v>86968</v>
       </c>
       <c r="C14" t="n">
-        <v>15803.2595</v>
+        <v>15267.201915</v>
       </c>
       <c r="D14" t="n">
-        <v>92202.7405</v>
+        <v>71700.798085</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>83578</v>
+        <v>111930</v>
       </c>
       <c r="C15" t="n">
-        <v>15862.028</v>
+        <v>15408.354465</v>
       </c>
       <c r="D15" t="n">
-        <v>67715.97199999999</v>
+        <v>96521.645535</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>83212</v>
+        <v>94700</v>
       </c>
       <c r="C16" t="n">
-        <v>16032.3205</v>
+        <v>15584.637845</v>
       </c>
       <c r="D16" t="n">
-        <v>67179.6795</v>
+        <v>79115.362155</v>
       </c>
     </row>
     <row r="17">
@@ -658,24 +658,27 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>79873</v>
+        <v>89373</v>
       </c>
       <c r="C17" t="n">
-        <v>16559.4275</v>
+        <v>15990.745715</v>
       </c>
       <c r="D17" t="n">
-        <v>63313.57249999999</v>
+        <v>73382.254285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>68089</v>
+      </c>
       <c r="C18" t="n">
-        <v>16683.57249999999</v>
+        <v>16606.740675</v>
       </c>
       <c r="D18" t="n">
-        <v>59953.5995049505</v>
+        <v>51482.259325</v>
       </c>
     </row>
     <row r="19">
@@ -683,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16252.82049999999</v>
+        <v>15895.788545</v>
       </c>
       <c r="D19" t="n">
         <v>72066.9185</v>
@@ -694,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15546.958</v>
+        <v>15110.141865</v>
       </c>
       <c r="D20" t="n">
         <v>74173.3315</v>
@@ -705,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13748.4165</v>
+        <v>13483.21114</v>
       </c>
       <c r="D21" t="n">
         <v>72400.7075</v>
@@ -716,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12030.7215</v>
+        <v>11726.835785</v>
       </c>
       <c r="D22" t="n">
         <v>70217.473</v>
@@ -727,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9319.645999999999</v>
+        <v>9147.03167</v>
       </c>
       <c r="D23" t="n">
         <v>21309.33</v>
@@ -738,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6308.333499999995</v>
+        <v>6514.02934</v>
       </c>
       <c r="D24" t="n">
         <v>69506.016</v>
@@ -749,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5687.261999999999</v>
+        <v>5694.991050000001</v>
       </c>
       <c r="D25" t="n">
         <v>44605.08100000001</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72552</v>
+        <v>78805</v>
       </c>
       <c r="C2" t="n">
-        <v>5181.7654555205</v>
+        <v>5569.423999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>67370.23454447951</v>
+        <v>73235.576</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69488</v>
+        <v>74694</v>
       </c>
       <c r="C3" t="n">
-        <v>5107.462723152999</v>
+        <v>5443.025</v>
       </c>
       <c r="D3" t="n">
-        <v>64380.537276847</v>
+        <v>69250.97500000001</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66646</v>
+        <v>71872</v>
       </c>
       <c r="C4" t="n">
-        <v>5078.246477696</v>
+        <v>5335.7675</v>
       </c>
       <c r="D4" t="n">
-        <v>61567.753522304</v>
+        <v>66536.2325</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64895</v>
+        <v>68930</v>
       </c>
       <c r="C5" t="n">
-        <v>5023.9429180395</v>
+        <v>5326.111</v>
       </c>
       <c r="D5" t="n">
-        <v>59871.0570819605</v>
+        <v>63603.889</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65868</v>
+        <v>68060</v>
       </c>
       <c r="C6" t="n">
-        <v>5058.781000903</v>
+        <v>5353.5615</v>
       </c>
       <c r="D6" t="n">
-        <v>60809.218999097</v>
+        <v>62706.4385</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>69024</v>
+        <v>68909</v>
       </c>
       <c r="C7" t="n">
-        <v>5188.476321084</v>
+        <v>5400.717</v>
       </c>
       <c r="D7" t="n">
-        <v>63835.523678916</v>
+        <v>63508.283</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68453</v>
+        <v>68628</v>
       </c>
       <c r="C8" t="n">
-        <v>5625.926671169</v>
+        <v>5986.228500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>62827.073328831</v>
+        <v>62641.7715</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>83421</v>
+        <v>77034</v>
       </c>
       <c r="C9" t="n">
-        <v>6893.515125000001</v>
+        <v>6774.907999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>76527.48487499999</v>
+        <v>70259.092</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>98124</v>
+        <v>72266</v>
       </c>
       <c r="C10" t="n">
-        <v>8247.303470000001</v>
+        <v>8159.217500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>89876.69653</v>
+        <v>64106.7825</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>109037</v>
+        <v>80854</v>
       </c>
       <c r="C11" t="n">
-        <v>13588.08752</v>
+        <v>13111.5495</v>
       </c>
       <c r="D11" t="n">
-        <v>95448.91248</v>
+        <v>67742.45050000001</v>
       </c>
     </row>
     <row r="12">
@@ -588,97 +588,79 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>112156</v>
+        <v>67889</v>
       </c>
       <c r="C12" t="n">
-        <v>15423.293375</v>
+        <v>15041.6385</v>
       </c>
       <c r="D12" t="n">
-        <v>96732.70662500001</v>
+        <v>52847.3615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>111068</v>
-      </c>
       <c r="C13" t="n">
-        <v>15250.37885</v>
+        <v>15360.8175</v>
       </c>
       <c r="D13" t="n">
-        <v>95817.62115000001</v>
+        <v>96998.807575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>86968</v>
-      </c>
       <c r="C14" t="n">
-        <v>15267.201915</v>
+        <v>15438.7275</v>
       </c>
       <c r="D14" t="n">
-        <v>71700.798085</v>
+        <v>96596.9025425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>111930</v>
-      </c>
       <c r="C15" t="n">
-        <v>15408.354465</v>
+        <v>15496.474</v>
       </c>
       <c r="D15" t="n">
-        <v>96521.645535</v>
+        <v>100447.1062675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>94700</v>
-      </c>
       <c r="C16" t="n">
-        <v>15584.637845</v>
+        <v>15736.574</v>
       </c>
       <c r="D16" t="n">
-        <v>79115.362155</v>
+        <v>101020.1465775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>89373</v>
-      </c>
       <c r="C17" t="n">
-        <v>15990.745715</v>
+        <v>16203.3305</v>
       </c>
       <c r="D17" t="n">
-        <v>73382.254285</v>
+        <v>97530.9176425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>68089</v>
-      </c>
       <c r="C18" t="n">
-        <v>16606.740675</v>
+        <v>16035.0225</v>
       </c>
       <c r="D18" t="n">
-        <v>51482.259325</v>
+        <v>89225.8361625</v>
       </c>
     </row>
     <row r="19">
@@ -686,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15895.788545</v>
+        <v>15489.1135</v>
       </c>
       <c r="D19" t="n">
         <v>72066.9185</v>
@@ -697,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15110.141865</v>
+        <v>15075.4555</v>
       </c>
       <c r="D20" t="n">
         <v>74173.3315</v>
@@ -708,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13483.21114</v>
+        <v>13277.7365</v>
       </c>
       <c r="D21" t="n">
         <v>72400.7075</v>
@@ -719,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11726.835785</v>
+        <v>11738.566</v>
       </c>
       <c r="D22" t="n">
         <v>70217.473</v>
@@ -730,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9147.03167</v>
+        <v>8937.529999999999</v>
       </c>
       <c r="D23" t="n">
         <v>21309.33</v>
@@ -741,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6514.02934</v>
+        <v>5960.1675</v>
       </c>
       <c r="D24" t="n">
         <v>69506.016</v>
@@ -752,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5694.991050000001</v>
+        <v>5052.110000000001</v>
       </c>
       <c r="D25" t="n">
         <v>44605.08100000001</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>78805</v>
+        <v>78622</v>
       </c>
       <c r="C2" t="n">
-        <v>5569.423999999999</v>
+        <v>5444.512500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>73235.576</v>
+        <v>73177.4875</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>74694</v>
+        <v>75199</v>
       </c>
       <c r="C3" t="n">
-        <v>5443.025</v>
+        <v>5387.3435</v>
       </c>
       <c r="D3" t="n">
-        <v>69250.97500000001</v>
+        <v>69811.6565</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71872</v>
+        <v>69820</v>
       </c>
       <c r="C4" t="n">
-        <v>5335.7675</v>
+        <v>5357.2225</v>
       </c>
       <c r="D4" t="n">
-        <v>66536.2325</v>
+        <v>64462.7775</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68930</v>
+        <v>69709</v>
       </c>
       <c r="C5" t="n">
-        <v>5326.111</v>
+        <v>5289.154500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>63603.889</v>
+        <v>64419.8455</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>68060</v>
+        <v>69148</v>
       </c>
       <c r="C6" t="n">
-        <v>5353.5615</v>
+        <v>5361.8285</v>
       </c>
       <c r="D6" t="n">
-        <v>62706.4385</v>
+        <v>63786.1715</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68909</v>
+        <v>71026</v>
       </c>
       <c r="C7" t="n">
-        <v>5400.717</v>
+        <v>5442.6015</v>
       </c>
       <c r="D7" t="n">
-        <v>63508.283</v>
+        <v>65583.3985</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68628</v>
+        <v>69369</v>
       </c>
       <c r="C8" t="n">
-        <v>5986.228500000001</v>
+        <v>5816.530999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>62641.7715</v>
+        <v>63552.469</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>77034</v>
+        <v>83438</v>
       </c>
       <c r="C9" t="n">
-        <v>6774.907999999999</v>
+        <v>7034.6115</v>
       </c>
       <c r="D9" t="n">
-        <v>70259.092</v>
+        <v>76403.3885</v>
       </c>
     </row>
     <row r="10">
@@ -560,41 +560,35 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>72266</v>
+        <v>67948</v>
       </c>
       <c r="C10" t="n">
-        <v>8159.217500000001</v>
+        <v>8596.6895</v>
       </c>
       <c r="D10" t="n">
-        <v>64106.7825</v>
+        <v>59351.3105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>80854</v>
-      </c>
       <c r="C11" t="n">
-        <v>13111.5495</v>
+        <v>13942.873</v>
       </c>
       <c r="D11" t="n">
-        <v>67742.45050000001</v>
+        <v>99192.12700000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>67889</v>
-      </c>
       <c r="C12" t="n">
-        <v>15041.6385</v>
+        <v>15769.3095</v>
       </c>
       <c r="D12" t="n">
-        <v>52847.3615</v>
+        <v>99767.6905</v>
       </c>
     </row>
     <row r="13">
@@ -602,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>15360.8175</v>
+        <v>15209.229</v>
       </c>
       <c r="D13" t="n">
-        <v>96998.807575</v>
+        <v>100144.771</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +607,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>15438.7275</v>
+        <v>15159.795</v>
       </c>
       <c r="D14" t="n">
-        <v>96596.9025425</v>
+        <v>101117.205</v>
       </c>
     </row>
     <row r="15">
@@ -624,10 +618,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>15496.474</v>
+        <v>15449.4445</v>
       </c>
       <c r="D15" t="n">
-        <v>100447.1062675</v>
+        <v>108724.5555</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +629,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15736.574</v>
+        <v>15588.433</v>
       </c>
       <c r="D16" t="n">
-        <v>101020.1465775</v>
+        <v>103763.567</v>
       </c>
     </row>
     <row r="17">
@@ -646,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>16203.3305</v>
+        <v>16020.6585</v>
       </c>
       <c r="D17" t="n">
-        <v>97530.9176425</v>
+        <v>101211.3415</v>
       </c>
     </row>
     <row r="18">
@@ -657,10 +651,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16035.0225</v>
+        <v>16262.3825</v>
       </c>
       <c r="D18" t="n">
-        <v>89225.8361625</v>
+        <v>93839.61749999999</v>
       </c>
     </row>
     <row r="19">
@@ -668,10 +662,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15489.1135</v>
+        <v>15862.609</v>
       </c>
       <c r="D19" t="n">
-        <v>72066.9185</v>
+        <v>88583.391</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +673,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15075.4555</v>
+        <v>14887.418</v>
       </c>
       <c r="D20" t="n">
-        <v>74173.3315</v>
+        <v>89024.58199999999</v>
       </c>
     </row>
     <row r="21">
@@ -690,10 +684,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13277.7365</v>
+        <v>13341.0375</v>
       </c>
       <c r="D21" t="n">
-        <v>72400.7075</v>
+        <v>87063.96249999999</v>
       </c>
     </row>
     <row r="22">
@@ -701,10 +695,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11738.566</v>
+        <v>11837.672</v>
       </c>
       <c r="D22" t="n">
-        <v>70217.473</v>
+        <v>85910.32799999999</v>
       </c>
     </row>
     <row r="23">
@@ -712,10 +706,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8937.529999999999</v>
+        <v>9490.991999999998</v>
       </c>
       <c r="D23" t="n">
-        <v>21309.33</v>
+        <v>84684.008</v>
       </c>
     </row>
     <row r="24">
@@ -723,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>5960.1675</v>
+        <v>6891.794</v>
       </c>
       <c r="D24" t="n">
-        <v>69506.016</v>
+        <v>81619.20600000001</v>
       </c>
     </row>
     <row r="25">
@@ -734,10 +728,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5052.110000000001</v>
+        <v>5770.9715</v>
       </c>
       <c r="D25" t="n">
-        <v>44605.08100000001</v>
+        <v>52348.0285</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -560,90 +560,111 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>67948</v>
+        <v>100294</v>
       </c>
       <c r="C10" t="n">
         <v>8596.6895</v>
       </c>
       <c r="D10" t="n">
-        <v>59351.3105</v>
+        <v>91697.31049999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="n">
+        <v>110135</v>
+      </c>
       <c r="C11" t="n">
         <v>13942.873</v>
       </c>
       <c r="D11" t="n">
-        <v>99192.12700000001</v>
+        <v>96192.12700000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
+      <c r="B12" t="n">
+        <v>117510</v>
+      </c>
       <c r="C12" t="n">
         <v>15769.3095</v>
       </c>
       <c r="D12" t="n">
-        <v>99767.6905</v>
+        <v>101740.6905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="n">
+        <v>119307</v>
+      </c>
       <c r="C13" t="n">
         <v>15209.229</v>
       </c>
       <c r="D13" t="n">
-        <v>100144.771</v>
+        <v>104097.771</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>114772</v>
+      </c>
       <c r="C14" t="n">
         <v>15159.795</v>
       </c>
       <c r="D14" t="n">
-        <v>101117.205</v>
+        <v>99612.205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>121362</v>
+      </c>
       <c r="C15" t="n">
         <v>15449.4445</v>
       </c>
       <c r="D15" t="n">
-        <v>108724.5555</v>
+        <v>105912.5555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>118637</v>
+      </c>
       <c r="C16" t="n">
         <v>15588.433</v>
       </c>
       <c r="D16" t="n">
-        <v>103763.567</v>
+        <v>103048.567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>119164</v>
+      </c>
       <c r="C17" t="n">
         <v>16020.6585</v>
       </c>
       <c r="D17" t="n">
-        <v>101211.3415</v>
+        <v>103143.3415</v>
       </c>
     </row>
     <row r="18">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>78622</v>
+        <v>72751</v>
       </c>
       <c r="C2" t="n">
-        <v>5444.512500000001</v>
+        <v>5281.5630294</v>
       </c>
       <c r="D2" t="n">
-        <v>73177.4875</v>
+        <v>67469.4369706</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75199</v>
+        <v>69982</v>
       </c>
       <c r="C3" t="n">
-        <v>5387.3435</v>
+        <v>5219.513573399999</v>
       </c>
       <c r="D3" t="n">
-        <v>69811.6565</v>
+        <v>64762.4864266</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>69820</v>
+        <v>67349</v>
       </c>
       <c r="C4" t="n">
-        <v>5357.2225</v>
+        <v>5215.409715599999</v>
       </c>
       <c r="D4" t="n">
-        <v>64462.7775</v>
+        <v>62133.5902844</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69709</v>
+        <v>65122</v>
       </c>
       <c r="C5" t="n">
-        <v>5289.154500000001</v>
+        <v>5203.961154000001</v>
       </c>
       <c r="D5" t="n">
-        <v>64419.8455</v>
+        <v>59918.038846</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>69148</v>
+        <v>66310</v>
       </c>
       <c r="C6" t="n">
-        <v>5361.8285</v>
+        <v>5197.191791400001</v>
       </c>
       <c r="D6" t="n">
-        <v>63786.1715</v>
+        <v>61112.8082086</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>71026</v>
+        <v>68884</v>
       </c>
       <c r="C7" t="n">
-        <v>5442.6015</v>
+        <v>5340.65931</v>
       </c>
       <c r="D7" t="n">
-        <v>65583.3985</v>
+        <v>63543.34069</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69369</v>
+        <v>68972</v>
       </c>
       <c r="C8" t="n">
-        <v>5816.530999999999</v>
+        <v>5690.484966600001</v>
       </c>
       <c r="D8" t="n">
-        <v>63552.469</v>
+        <v>63281.5150334</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>83438</v>
+        <v>84176</v>
       </c>
       <c r="C9" t="n">
-        <v>7034.6115</v>
+        <v>7243.272603</v>
       </c>
       <c r="D9" t="n">
-        <v>76403.3885</v>
+        <v>76932.727397</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>100294</v>
+        <v>80621</v>
       </c>
       <c r="C10" t="n">
-        <v>8596.6895</v>
+        <v>8810.345451599998</v>
       </c>
       <c r="D10" t="n">
-        <v>91697.31049999999</v>
+        <v>71810.65454839999</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>110135</v>
+        <v>112781</v>
       </c>
       <c r="C11" t="n">
-        <v>13942.873</v>
+        <v>13845.818</v>
       </c>
       <c r="D11" t="n">
-        <v>96192.12700000001</v>
+        <v>98935.182</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>117510</v>
+        <v>121213</v>
       </c>
       <c r="C12" t="n">
-        <v>15769.3095</v>
+        <v>15425.6935</v>
       </c>
       <c r="D12" t="n">
-        <v>101740.6905</v>
+        <v>105787.3065</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>119307</v>
+        <v>117324</v>
       </c>
       <c r="C13" t="n">
-        <v>15209.229</v>
+        <v>15935.46969</v>
       </c>
       <c r="D13" t="n">
-        <v>104097.771</v>
+        <v>101388.53031</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>114772</v>
+        <v>118070</v>
       </c>
       <c r="C14" t="n">
-        <v>15159.795</v>
+        <v>15980.34459</v>
       </c>
       <c r="D14" t="n">
-        <v>99612.205</v>
+        <v>102089.65541</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>121362</v>
+        <v>122483</v>
       </c>
       <c r="C15" t="n">
-        <v>15449.4445</v>
+        <v>16006.18068</v>
       </c>
       <c r="D15" t="n">
-        <v>105912.5555</v>
+        <v>106476.81932</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>118637</v>
+        <v>121970</v>
       </c>
       <c r="C16" t="n">
-        <v>15588.433</v>
+        <v>16129.67055</v>
       </c>
       <c r="D16" t="n">
-        <v>103048.567</v>
+        <v>105840.32945</v>
       </c>
     </row>
     <row r="17">
@@ -658,24 +658,27 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>119164</v>
+        <v>103896</v>
       </c>
       <c r="C17" t="n">
-        <v>16020.6585</v>
+        <v>16259.57571</v>
       </c>
       <c r="D17" t="n">
-        <v>103143.3415</v>
+        <v>87636.42429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>18802</v>
+      </c>
       <c r="C18" t="n">
-        <v>16262.3825</v>
+        <v>16450.07448</v>
       </c>
       <c r="D18" t="n">
-        <v>93839.61749999999</v>
+        <v>2351.925520000001</v>
       </c>
     </row>
     <row r="19">
@@ -683,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15862.609</v>
+        <v>16258.20126</v>
       </c>
       <c r="D19" t="n">
         <v>88583.391</v>
@@ -694,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>14887.418</v>
+        <v>15318.55227</v>
       </c>
       <c r="D20" t="n">
         <v>89024.58199999999</v>
@@ -705,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13341.0375</v>
+        <v>13705.95114</v>
       </c>
       <c r="D21" t="n">
         <v>87063.96249999999</v>
@@ -716,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11837.672</v>
+        <v>12047.14707</v>
       </c>
       <c r="D22" t="n">
         <v>85910.32799999999</v>
@@ -727,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9490.991999999998</v>
+        <v>9638.00397</v>
       </c>
       <c r="D23" t="n">
         <v>84684.008</v>
@@ -738,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6891.794</v>
+        <v>6839.395290000001</v>
       </c>
       <c r="D24" t="n">
         <v>81619.20600000001</v>
@@ -749,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5770.9715</v>
+        <v>5959.954350000001</v>
       </c>
       <c r="D25" t="n">
         <v>52348.0285</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72751</v>
+        <v>78971</v>
       </c>
       <c r="C2" t="n">
-        <v>5281.5630294</v>
+        <v>5623.7055</v>
       </c>
       <c r="D2" t="n">
-        <v>67469.4369706</v>
+        <v>73347.2945</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69982</v>
+        <v>75703</v>
       </c>
       <c r="C3" t="n">
-        <v>5219.513573399999</v>
+        <v>5458.229</v>
       </c>
       <c r="D3" t="n">
-        <v>64762.4864266</v>
+        <v>70244.77099999999</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67349</v>
+        <v>72637</v>
       </c>
       <c r="C4" t="n">
-        <v>5215.409715599999</v>
+        <v>5507.9745</v>
       </c>
       <c r="D4" t="n">
-        <v>62133.5902844</v>
+        <v>67129.0255</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>65122</v>
+        <v>70071</v>
       </c>
       <c r="C5" t="n">
-        <v>5203.961154000001</v>
+        <v>5475.498</v>
       </c>
       <c r="D5" t="n">
-        <v>59918.038846</v>
+        <v>64595.502</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>66310</v>
+        <v>70844</v>
       </c>
       <c r="C6" t="n">
-        <v>5197.191791400001</v>
+        <v>5469.52</v>
       </c>
       <c r="D6" t="n">
-        <v>61112.8082086</v>
+        <v>65374.48</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68884</v>
+        <v>73558</v>
       </c>
       <c r="C7" t="n">
-        <v>5340.65931</v>
+        <v>5575.703</v>
       </c>
       <c r="D7" t="n">
-        <v>63543.34069</v>
+        <v>67982.29700000001</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68972</v>
+        <v>73509</v>
       </c>
       <c r="C8" t="n">
-        <v>5690.484966600001</v>
+        <v>6141.8735</v>
       </c>
       <c r="D8" t="n">
-        <v>63281.5150334</v>
+        <v>67367.1265</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>84176</v>
+        <v>86371</v>
       </c>
       <c r="C9" t="n">
-        <v>7243.272603</v>
+        <v>7163.6355</v>
       </c>
       <c r="D9" t="n">
-        <v>76932.727397</v>
+        <v>79207.3645</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>80621</v>
+        <v>103822</v>
       </c>
       <c r="C10" t="n">
-        <v>8810.345451599998</v>
+        <v>8647.460500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>71810.65454839999</v>
+        <v>95174.5395</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>112781</v>
+        <v>94388</v>
       </c>
       <c r="C11" t="n">
-        <v>13845.818</v>
+        <v>12435.7905</v>
       </c>
       <c r="D11" t="n">
-        <v>98935.182</v>
+        <v>81952.2095</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>121213</v>
+        <v>97098</v>
       </c>
       <c r="C12" t="n">
-        <v>15425.6935</v>
+        <v>15471.022</v>
       </c>
       <c r="D12" t="n">
-        <v>105787.3065</v>
+        <v>81626.978</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>117324</v>
+        <v>97310</v>
       </c>
       <c r="C13" t="n">
-        <v>15935.46969</v>
+        <v>16384.8475</v>
       </c>
       <c r="D13" t="n">
-        <v>101388.53031</v>
+        <v>80925.1525</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>118070</v>
+        <v>97015</v>
       </c>
       <c r="C14" t="n">
-        <v>15980.34459</v>
+        <v>16062.228</v>
       </c>
       <c r="D14" t="n">
-        <v>102089.65541</v>
+        <v>80952.772</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>122483</v>
+        <v>123772</v>
       </c>
       <c r="C15" t="n">
-        <v>16006.18068</v>
+        <v>16185.204</v>
       </c>
       <c r="D15" t="n">
-        <v>106476.81932</v>
+        <v>107586.796</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>121970</v>
+        <v>122973</v>
       </c>
       <c r="C16" t="n">
-        <v>16129.67055</v>
+        <v>16525.544</v>
       </c>
       <c r="D16" t="n">
-        <v>105840.32945</v>
+        <v>106447.456</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>103896</v>
+        <v>82093</v>
       </c>
       <c r="C17" t="n">
-        <v>16259.57571</v>
+        <v>16462.6175</v>
       </c>
       <c r="D17" t="n">
-        <v>87636.42429</v>
+        <v>65630.38250000001</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>18802</v>
+        <v>56814</v>
       </c>
       <c r="C18" t="n">
-        <v>16450.07448</v>
+        <v>16761.7275</v>
       </c>
       <c r="D18" t="n">
-        <v>2351.925520000001</v>
+        <v>40052.2725</v>
       </c>
     </row>
     <row r="19">
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16258.20126</v>
+        <v>16532.1625</v>
       </c>
       <c r="D19" t="n">
         <v>88583.391</v>
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15318.55227</v>
+        <v>15890.3885</v>
       </c>
       <c r="D20" t="n">
         <v>89024.58199999999</v>
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13705.95114</v>
+        <v>13683.775</v>
       </c>
       <c r="D21" t="n">
         <v>87063.96249999999</v>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12047.14707</v>
+        <v>11966.283</v>
       </c>
       <c r="D22" t="n">
         <v>85910.32799999999</v>
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9638.00397</v>
+        <v>9398.494000000001</v>
       </c>
       <c r="D23" t="n">
         <v>84684.008</v>
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6839.395290000001</v>
+        <v>6574.9635</v>
       </c>
       <c r="D24" t="n">
         <v>81619.20600000001</v>
@@ -752,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5959.954350000001</v>
+        <v>5831.934499999999</v>
       </c>
       <c r="D25" t="n">
         <v>52348.0285</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>78971</v>
+        <v>81702</v>
       </c>
       <c r="C2" t="n">
-        <v>5623.7055</v>
+        <v>5581.919</v>
       </c>
       <c r="D2" t="n">
-        <v>73347.2945</v>
+        <v>76120.08100000001</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75703</v>
+        <v>77188</v>
       </c>
       <c r="C3" t="n">
-        <v>5458.229</v>
+        <v>5396.9405</v>
       </c>
       <c r="D3" t="n">
-        <v>70244.77099999999</v>
+        <v>71791.0595</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>72637</v>
+        <v>73895</v>
       </c>
       <c r="C4" t="n">
-        <v>5507.9745</v>
+        <v>5495.0525</v>
       </c>
       <c r="D4" t="n">
-        <v>67129.0255</v>
+        <v>68399.94749999999</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70071</v>
+        <v>71440</v>
       </c>
       <c r="C5" t="n">
-        <v>5475.498</v>
+        <v>5434.544500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>64595.502</v>
+        <v>66005.4555</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70844</v>
+        <v>71537</v>
       </c>
       <c r="C6" t="n">
-        <v>5469.52</v>
+        <v>5428.478999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>65374.48</v>
+        <v>66108.52100000001</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>73558</v>
+        <v>74078</v>
       </c>
       <c r="C7" t="n">
-        <v>5575.703</v>
+        <v>5521.411</v>
       </c>
       <c r="D7" t="n">
-        <v>67982.29700000001</v>
+        <v>68556.58900000001</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>73509</v>
+        <v>73085</v>
       </c>
       <c r="C8" t="n">
-        <v>6141.8735</v>
+        <v>5848.6295</v>
       </c>
       <c r="D8" t="n">
-        <v>67367.1265</v>
+        <v>67236.3705</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>86371</v>
+        <v>85878</v>
       </c>
       <c r="C9" t="n">
-        <v>7163.6355</v>
+        <v>7409.1955</v>
       </c>
       <c r="D9" t="n">
-        <v>79207.3645</v>
+        <v>78468.8045</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>103822</v>
+        <v>103546</v>
       </c>
       <c r="C10" t="n">
-        <v>8647.460500000001</v>
+        <v>8747.119500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>95174.5395</v>
+        <v>94798.8805</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>94388</v>
+        <v>118632</v>
       </c>
       <c r="C11" t="n">
-        <v>12435.7905</v>
+        <v>13859.2475</v>
       </c>
       <c r="D11" t="n">
-        <v>81952.2095</v>
+        <v>104772.7525</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>97098</v>
+        <v>97381</v>
       </c>
       <c r="C12" t="n">
-        <v>15471.022</v>
+        <v>15630.083</v>
       </c>
       <c r="D12" t="n">
-        <v>81626.978</v>
+        <v>81750.917</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>97310</v>
+        <v>97506</v>
       </c>
       <c r="C13" t="n">
-        <v>16384.8475</v>
+        <v>15508.171</v>
       </c>
       <c r="D13" t="n">
-        <v>80925.1525</v>
+        <v>81997.829</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>97015</v>
+        <v>121129</v>
       </c>
       <c r="C14" t="n">
-        <v>16062.228</v>
+        <v>15504.7795</v>
       </c>
       <c r="D14" t="n">
-        <v>80952.772</v>
+        <v>105624.2205</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>123772</v>
+        <v>111713</v>
       </c>
       <c r="C15" t="n">
-        <v>16185.204</v>
+        <v>15740.2385</v>
       </c>
       <c r="D15" t="n">
-        <v>107586.796</v>
+        <v>95972.76149999999</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>122973</v>
+        <v>104683</v>
       </c>
       <c r="C16" t="n">
-        <v>16525.544</v>
+        <v>15821.344</v>
       </c>
       <c r="D16" t="n">
-        <v>106447.456</v>
+        <v>88861.656</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>82093</v>
+        <v>117876</v>
       </c>
       <c r="C17" t="n">
-        <v>16462.6175</v>
+        <v>15962.3415</v>
       </c>
       <c r="D17" t="n">
-        <v>65630.38250000001</v>
+        <v>101913.6585</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>56814</v>
+        <v>96505</v>
       </c>
       <c r="C18" t="n">
-        <v>16761.7275</v>
+        <v>16427.5545</v>
       </c>
       <c r="D18" t="n">
-        <v>40052.2725</v>
+        <v>80077.4455</v>
       </c>
     </row>
     <row r="19">
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16532.1625</v>
+        <v>16271.78</v>
       </c>
       <c r="D19" t="n">
         <v>88583.391</v>
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15890.3885</v>
+        <v>15553.594</v>
       </c>
       <c r="D20" t="n">
         <v>89024.58199999999</v>
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13683.775</v>
+        <v>13684.776</v>
       </c>
       <c r="D21" t="n">
         <v>87063.96249999999</v>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11966.283</v>
+        <v>12055.652</v>
       </c>
       <c r="D22" t="n">
         <v>85910.32799999999</v>
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9398.494000000001</v>
+        <v>9556.389499999999</v>
       </c>
       <c r="D23" t="n">
         <v>84684.008</v>
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6574.9635</v>
+        <v>6528.8335</v>
       </c>
       <c r="D24" t="n">
         <v>81619.20600000001</v>
@@ -752,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5831.934499999999</v>
+        <v>5841.465</v>
       </c>
       <c r="D25" t="n">
         <v>52348.0285</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>81702</v>
+        <v>76517</v>
       </c>
       <c r="C2" t="n">
-        <v>5581.919</v>
+        <v>5403.181792229516</v>
       </c>
       <c r="D2" t="n">
-        <v>76120.08100000001</v>
+        <v>71113.81820777048</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>77188</v>
+        <v>72824</v>
       </c>
       <c r="C3" t="n">
-        <v>5396.9405</v>
+        <v>5278.963850951805</v>
       </c>
       <c r="D3" t="n">
-        <v>71791.0595</v>
+        <v>67545.03614904819</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>73895</v>
+        <v>70097</v>
       </c>
       <c r="C4" t="n">
-        <v>5495.0525</v>
+        <v>5184.064927655845</v>
       </c>
       <c r="D4" t="n">
-        <v>68399.94749999999</v>
+        <v>64912.93507234415</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>71440</v>
+        <v>67810</v>
       </c>
       <c r="C5" t="n">
-        <v>5434.544500000001</v>
+        <v>5136.549907955236</v>
       </c>
       <c r="D5" t="n">
-        <v>66005.4555</v>
+        <v>62673.45009204476</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>71537</v>
+        <v>70206</v>
       </c>
       <c r="C6" t="n">
-        <v>5428.478999999999</v>
+        <v>5129.7719337361</v>
       </c>
       <c r="D6" t="n">
-        <v>66108.52100000001</v>
+        <v>65076.2280662639</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>74078</v>
+        <v>64915</v>
       </c>
       <c r="C7" t="n">
-        <v>5521.411</v>
+        <v>5143.13849224455</v>
       </c>
       <c r="D7" t="n">
-        <v>68556.58900000001</v>
+        <v>59771.86150775545</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>73085</v>
+        <v>63530</v>
       </c>
       <c r="C8" t="n">
-        <v>5848.6295</v>
+        <v>5818.040433500224</v>
       </c>
       <c r="D8" t="n">
-        <v>67236.3705</v>
+        <v>57711.95956649978</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>85878</v>
+        <v>68946</v>
       </c>
       <c r="C9" t="n">
-        <v>7409.1955</v>
+        <v>6499.70213840486</v>
       </c>
       <c r="D9" t="n">
-        <v>78468.8045</v>
+        <v>62446.29786159514</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>103546</v>
+        <v>73677</v>
       </c>
       <c r="C10" t="n">
-        <v>8747.119500000001</v>
+        <v>7901.680536594761</v>
       </c>
       <c r="D10" t="n">
-        <v>94798.8805</v>
+        <v>65775.31946340523</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>118632</v>
+        <v>84977</v>
       </c>
       <c r="C11" t="n">
-        <v>13859.2475</v>
+        <v>13514.69019060903</v>
       </c>
       <c r="D11" t="n">
-        <v>104772.7525</v>
+        <v>71462.30980939096</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>97381</v>
+        <v>89747</v>
       </c>
       <c r="C12" t="n">
-        <v>15630.083</v>
+        <v>15633.91644990992</v>
       </c>
       <c r="D12" t="n">
-        <v>81750.917</v>
+        <v>74113.08355009009</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>97506</v>
+        <v>91611</v>
       </c>
       <c r="C13" t="n">
-        <v>15508.171</v>
+        <v>15567.09641022996</v>
       </c>
       <c r="D13" t="n">
-        <v>81997.829</v>
+        <v>76043.90358977004</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>121129</v>
+        <v>93598</v>
       </c>
       <c r="C14" t="n">
-        <v>15504.7795</v>
+        <v>15766.55339272752</v>
       </c>
       <c r="D14" t="n">
-        <v>105624.2205</v>
+        <v>77831.44660727248</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>111713</v>
+        <v>98785</v>
       </c>
       <c r="C15" t="n">
-        <v>15740.2385</v>
+        <v>15912.72896354587</v>
       </c>
       <c r="D15" t="n">
-        <v>95972.76149999999</v>
+        <v>82872.27103645413</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>104683</v>
+        <v>100081</v>
       </c>
       <c r="C16" t="n">
-        <v>15821.344</v>
+        <v>16136.85567434339</v>
       </c>
       <c r="D16" t="n">
-        <v>88861.656</v>
+        <v>83944.14432565661</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>117876</v>
+        <v>95263</v>
       </c>
       <c r="C17" t="n">
-        <v>15962.3415</v>
+        <v>16644.07866334462</v>
       </c>
       <c r="D17" t="n">
-        <v>101913.6585</v>
+        <v>78618.92133665539</v>
       </c>
     </row>
     <row r="18">
@@ -672,79 +672,97 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>96505</v>
+        <v>96824</v>
       </c>
       <c r="C18" t="n">
-        <v>16427.5545</v>
+        <v>16694.97483924541</v>
       </c>
       <c r="D18" t="n">
-        <v>80077.4455</v>
+        <v>80129.02516075459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>95537</v>
+      </c>
       <c r="C19" t="n">
-        <v>16271.78</v>
+        <v>16392.60347814709</v>
       </c>
       <c r="D19" t="n">
-        <v>88583.391</v>
+        <v>79144.3965218529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>95992</v>
+      </c>
       <c r="C20" t="n">
-        <v>15553.594</v>
+        <v>15677.69035636025</v>
       </c>
       <c r="D20" t="n">
-        <v>89024.58199999999</v>
+        <v>80314.30964363975</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>94905</v>
+      </c>
       <c r="C21" t="n">
-        <v>13684.776</v>
+        <v>14143.01405219119</v>
       </c>
       <c r="D21" t="n">
-        <v>87063.96249999999</v>
+        <v>80761.9859478088</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>94570</v>
+      </c>
       <c r="C22" t="n">
-        <v>12055.652</v>
+        <v>12333.28142343908</v>
       </c>
       <c r="D22" t="n">
-        <v>85910.32799999999</v>
+        <v>82236.71857656092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>70374</v>
+      </c>
       <c r="C23" t="n">
-        <v>9556.389499999999</v>
+        <v>9480.206819321584</v>
       </c>
       <c r="D23" t="n">
-        <v>84684.008</v>
+        <v>60893.79318067842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
+      <c r="B24" t="n">
+        <v>47771</v>
+      </c>
       <c r="C24" t="n">
-        <v>6528.8335</v>
+        <v>6243.876406472426</v>
       </c>
       <c r="D24" t="n">
-        <v>81619.20600000001</v>
+        <v>41527.12359352758</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +770,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5841.465</v>
+        <v>5337.237675511805</v>
       </c>
       <c r="D25" t="n">
-        <v>52348.0285</v>
+        <v>69812.7623244882</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76517</v>
+        <v>74809</v>
       </c>
       <c r="C2" t="n">
-        <v>5403.181792229516</v>
+        <v>5689.726000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>71113.81820777048</v>
+        <v>69119.274</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>72824</v>
+        <v>71872</v>
       </c>
       <c r="C3" t="n">
-        <v>5278.963850951805</v>
+        <v>5531.9635</v>
       </c>
       <c r="D3" t="n">
-        <v>67545.03614904819</v>
+        <v>66340.0365</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70097</v>
+        <v>68791</v>
       </c>
       <c r="C4" t="n">
-        <v>5184.064927655845</v>
+        <v>5582.9375</v>
       </c>
       <c r="D4" t="n">
-        <v>64912.93507234415</v>
+        <v>63208.0625</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>67810</v>
+        <v>66462</v>
       </c>
       <c r="C5" t="n">
-        <v>5136.549907955236</v>
+        <v>5518.562</v>
       </c>
       <c r="D5" t="n">
-        <v>62673.45009204476</v>
+        <v>60943.438</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70206</v>
+        <v>67369</v>
       </c>
       <c r="C6" t="n">
-        <v>5129.7719337361</v>
+        <v>5473.3875</v>
       </c>
       <c r="D6" t="n">
-        <v>65076.2280662639</v>
+        <v>61895.6125</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>64915</v>
+        <v>69937</v>
       </c>
       <c r="C7" t="n">
-        <v>5143.13849224455</v>
+        <v>5589.052</v>
       </c>
       <c r="D7" t="n">
-        <v>59771.86150775545</v>
+        <v>64347.948</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63530</v>
+        <v>70192</v>
       </c>
       <c r="C8" t="n">
-        <v>5818.040433500224</v>
+        <v>6206.172</v>
       </c>
       <c r="D8" t="n">
-        <v>57711.95956649978</v>
+        <v>63985.828</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>68946</v>
+        <v>85051</v>
       </c>
       <c r="C9" t="n">
-        <v>6499.70213840486</v>
+        <v>7243.6665</v>
       </c>
       <c r="D9" t="n">
-        <v>62446.29786159514</v>
+        <v>77807.33349999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>73677</v>
+        <v>102213</v>
       </c>
       <c r="C10" t="n">
-        <v>7901.680536594761</v>
+        <v>8885.4745</v>
       </c>
       <c r="D10" t="n">
-        <v>65775.31946340523</v>
+        <v>93327.5255</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>84977</v>
+        <v>113425</v>
       </c>
       <c r="C11" t="n">
-        <v>13514.69019060903</v>
+        <v>13767.1835</v>
       </c>
       <c r="D11" t="n">
-        <v>71462.30980939096</v>
+        <v>99657.8165</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>89747</v>
+        <v>117989</v>
       </c>
       <c r="C12" t="n">
-        <v>15633.91644990992</v>
+        <v>16394.5425</v>
       </c>
       <c r="D12" t="n">
-        <v>74113.08355009009</v>
+        <v>101594.4575</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>91611</v>
+        <v>118146</v>
       </c>
       <c r="C13" t="n">
-        <v>15567.09641022996</v>
+        <v>16601.9735</v>
       </c>
       <c r="D13" t="n">
-        <v>76043.90358977004</v>
+        <v>101544.0265</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>93598</v>
+        <v>117787</v>
       </c>
       <c r="C14" t="n">
-        <v>15766.55339272752</v>
+        <v>16136.57733333333</v>
       </c>
       <c r="D14" t="n">
-        <v>77831.44660727248</v>
+        <v>101650.4226666667</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>98785</v>
+        <v>123132</v>
       </c>
       <c r="C15" t="n">
-        <v>15912.72896354587</v>
+        <v>16181.1125</v>
       </c>
       <c r="D15" t="n">
-        <v>82872.27103645413</v>
+        <v>106950.8875</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>100081</v>
+        <v>125170</v>
       </c>
       <c r="C16" t="n">
-        <v>16136.85567434339</v>
+        <v>16478.651</v>
       </c>
       <c r="D16" t="n">
-        <v>83944.14432565661</v>
+        <v>108691.349</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>95263</v>
+        <v>123443</v>
       </c>
       <c r="C17" t="n">
-        <v>16644.07866334462</v>
+        <v>16626.0535</v>
       </c>
       <c r="D17" t="n">
-        <v>78618.92133665539</v>
+        <v>106816.9465</v>
       </c>
     </row>
     <row r="18">
@@ -672,24 +672,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>96824</v>
+        <v>119718</v>
       </c>
       <c r="C18" t="n">
-        <v>16694.97483924541</v>
+        <v>16821.924</v>
       </c>
       <c r="D18" t="n">
-        <v>80129.02516075459</v>
+        <v>102896.076</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>95537</v>
-      </c>
       <c r="C19" t="n">
-        <v>16392.60347814709</v>
+        <v>16713.2315</v>
       </c>
       <c r="D19" t="n">
         <v>79144.3965218529</v>
@@ -699,11 +696,8 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>95992</v>
-      </c>
       <c r="C20" t="n">
-        <v>15677.69035636025</v>
+        <v>16263.632</v>
       </c>
       <c r="D20" t="n">
         <v>80314.30964363975</v>
@@ -713,11 +707,8 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>94905</v>
-      </c>
       <c r="C21" t="n">
-        <v>14143.01405219119</v>
+        <v>13980.50966666666</v>
       </c>
       <c r="D21" t="n">
         <v>80761.9859478088</v>
@@ -727,11 +718,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>94570</v>
-      </c>
       <c r="C22" t="n">
-        <v>12333.28142343908</v>
+        <v>12278.59266666667</v>
       </c>
       <c r="D22" t="n">
         <v>82236.71857656092</v>
@@ -741,11 +729,8 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>70374</v>
-      </c>
       <c r="C23" t="n">
-        <v>9480.206819321584</v>
+        <v>9696.488666666666</v>
       </c>
       <c r="D23" t="n">
         <v>60893.79318067842</v>
@@ -755,11 +740,8 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>47771</v>
-      </c>
       <c r="C24" t="n">
-        <v>6243.876406472426</v>
+        <v>6635.017666666667</v>
       </c>
       <c r="D24" t="n">
         <v>41527.12359352758</v>
@@ -770,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5337.237675511805</v>
+        <v>6040.419000000001</v>
       </c>
       <c r="D25" t="n">
         <v>69812.7623244882</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>74809</v>
+        <v>79320</v>
       </c>
       <c r="C2" t="n">
-        <v>5689.726000000001</v>
+        <v>5367.6475</v>
       </c>
       <c r="D2" t="n">
-        <v>69119.274</v>
+        <v>73952.35249999999</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>71872</v>
+        <v>75071</v>
       </c>
       <c r="C3" t="n">
-        <v>5531.9635</v>
+        <v>5238.613499999999</v>
       </c>
       <c r="D3" t="n">
-        <v>66340.0365</v>
+        <v>69832.38650000001</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>68791</v>
+        <v>71835</v>
       </c>
       <c r="C4" t="n">
-        <v>5582.9375</v>
+        <v>5194.5815</v>
       </c>
       <c r="D4" t="n">
-        <v>63208.0625</v>
+        <v>66640.4185</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66462</v>
+        <v>65483</v>
       </c>
       <c r="C5" t="n">
-        <v>5518.562</v>
+        <v>5174.980500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>60943.438</v>
+        <v>60308.0195</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67369</v>
+        <v>49690</v>
       </c>
       <c r="C6" t="n">
-        <v>5473.3875</v>
+        <v>5228.214</v>
       </c>
       <c r="D6" t="n">
-        <v>61895.6125</v>
+        <v>44461.786</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>69937</v>
+        <v>47776</v>
       </c>
       <c r="C7" t="n">
-        <v>5589.052</v>
+        <v>5465.2305</v>
       </c>
       <c r="D7" t="n">
-        <v>64347.948</v>
+        <v>42310.7695</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>70192</v>
+        <v>48551</v>
       </c>
       <c r="C8" t="n">
-        <v>6206.172</v>
+        <v>6478.023</v>
       </c>
       <c r="D8" t="n">
-        <v>63985.828</v>
+        <v>42072.977</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>85051</v>
+        <v>61821</v>
       </c>
       <c r="C9" t="n">
-        <v>7243.6665</v>
+        <v>7287.380499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>77807.33349999999</v>
+        <v>54533.6195</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>102213</v>
+        <v>77677</v>
       </c>
       <c r="C10" t="n">
-        <v>8885.4745</v>
+        <v>9017.842499999999</v>
       </c>
       <c r="D10" t="n">
-        <v>93327.5255</v>
+        <v>68659.1575</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>113425</v>
+        <v>84702</v>
       </c>
       <c r="C11" t="n">
-        <v>13767.1835</v>
+        <v>14472.567</v>
       </c>
       <c r="D11" t="n">
-        <v>99657.8165</v>
+        <v>70229.433</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>117989</v>
+        <v>72561</v>
       </c>
       <c r="C12" t="n">
-        <v>16394.5425</v>
+        <v>16357.7465</v>
       </c>
       <c r="D12" t="n">
-        <v>101594.4575</v>
+        <v>56203.2535</v>
       </c>
     </row>
     <row r="13">
@@ -602,24 +602,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>118146</v>
+        <v>74015</v>
       </c>
       <c r="C13" t="n">
-        <v>16601.9735</v>
+        <v>16558.8255</v>
       </c>
       <c r="D13" t="n">
-        <v>101544.0265</v>
+        <v>57456.1745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>117787</v>
-      </c>
       <c r="C14" t="n">
-        <v>16136.57733333333</v>
+        <v>16733.4465</v>
       </c>
       <c r="D14" t="n">
         <v>101650.4226666667</v>
@@ -629,11 +626,8 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>123132</v>
-      </c>
       <c r="C15" t="n">
-        <v>16181.1125</v>
+        <v>16967.0395</v>
       </c>
       <c r="D15" t="n">
         <v>106950.8875</v>
@@ -643,11 +637,8 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>125170</v>
-      </c>
       <c r="C16" t="n">
-        <v>16478.651</v>
+        <v>16689.1605</v>
       </c>
       <c r="D16" t="n">
         <v>108691.349</v>
@@ -657,11 +648,8 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>123443</v>
-      </c>
       <c r="C17" t="n">
-        <v>16626.0535</v>
+        <v>16402.6835</v>
       </c>
       <c r="D17" t="n">
         <v>106816.9465</v>
@@ -671,11 +659,8 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>119718</v>
-      </c>
       <c r="C18" t="n">
-        <v>16821.924</v>
+        <v>16404.992</v>
       </c>
       <c r="D18" t="n">
         <v>102896.076</v>
@@ -686,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16713.2315</v>
+        <v>16482.6715</v>
       </c>
       <c r="D19" t="n">
         <v>79144.3965218529</v>
@@ -697,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>16263.632</v>
+        <v>16346.816</v>
       </c>
       <c r="D20" t="n">
         <v>80314.30964363975</v>
@@ -708,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13980.50966666666</v>
+        <v>14102.174</v>
       </c>
       <c r="D21" t="n">
         <v>80761.9859478088</v>
@@ -719,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12278.59266666667</v>
+        <v>12417.102</v>
       </c>
       <c r="D22" t="n">
         <v>82236.71857656092</v>
@@ -730,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9696.488666666666</v>
+        <v>9745.787</v>
       </c>
       <c r="D23" t="n">
         <v>60893.79318067842</v>
@@ -741,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6635.017666666667</v>
+        <v>6739.6595</v>
       </c>
       <c r="D24" t="n">
         <v>41527.12359352758</v>
@@ -752,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6040.419000000001</v>
+        <v>5949.048500000001</v>
       </c>
       <c r="D25" t="n">
         <v>69812.7623244882</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>65483</v>
+        <v>69162</v>
       </c>
       <c r="C5" t="n">
         <v>5174.980500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>60308.0195</v>
+        <v>63987.0195</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49690</v>
+        <v>69265</v>
       </c>
       <c r="C6" t="n">
         <v>5228.214</v>
       </c>
       <c r="D6" t="n">
-        <v>44461.786</v>
+        <v>64036.786</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>61821</v>
+        <v>78606</v>
       </c>
       <c r="C9" t="n">
         <v>7287.380499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>54533.6195</v>
+        <v>71318.6195</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>77677</v>
+        <v>97689</v>
       </c>
       <c r="C10" t="n">
         <v>9017.842499999999</v>
       </c>
       <c r="D10" t="n">
-        <v>68659.1575</v>
+        <v>88671.1575</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>84702</v>
+        <v>106884</v>
       </c>
       <c r="C11" t="n">
         <v>14472.567</v>
       </c>
       <c r="D11" t="n">
-        <v>70229.433</v>
+        <v>92411.433</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>72561</v>
+        <v>116889</v>
       </c>
       <c r="C12" t="n">
         <v>16357.7465</v>
       </c>
       <c r="D12" t="n">
-        <v>56203.2535</v>
+        <v>100531.2535</v>
       </c>
     </row>
     <row r="13">
@@ -602,68 +602,83 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>74015</v>
+        <v>118659</v>
       </c>
       <c r="C13" t="n">
         <v>16558.8255</v>
       </c>
       <c r="D13" t="n">
-        <v>57456.1745</v>
+        <v>102100.1745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>124076</v>
+      </c>
       <c r="C14" t="n">
         <v>16733.4465</v>
       </c>
       <c r="D14" t="n">
-        <v>101650.4226666667</v>
+        <v>107342.5535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>123610</v>
+      </c>
       <c r="C15" t="n">
         <v>16967.0395</v>
       </c>
       <c r="D15" t="n">
-        <v>106950.8875</v>
+        <v>106642.9605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>123474</v>
+      </c>
       <c r="C16" t="n">
         <v>16689.1605</v>
       </c>
       <c r="D16" t="n">
-        <v>108691.349</v>
+        <v>106784.8395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>107183</v>
+      </c>
       <c r="C17" t="n">
         <v>16402.6835</v>
       </c>
       <c r="D17" t="n">
-        <v>106816.9465</v>
+        <v>90780.3165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>102324</v>
+      </c>
       <c r="C18" t="n">
         <v>16404.992</v>
       </c>
       <c r="D18" t="n">
-        <v>102896.076</v>
+        <v>85919.008</v>
       </c>
     </row>
     <row r="19">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79320</v>
+        <v>75475</v>
       </c>
       <c r="C2" t="n">
-        <v>5367.6475</v>
+        <v>5554.7135</v>
       </c>
       <c r="D2" t="n">
-        <v>73952.35249999999</v>
+        <v>69920.2865</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75071</v>
+        <v>72275</v>
       </c>
       <c r="C3" t="n">
-        <v>5238.613499999999</v>
+        <v>5359.343500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>69832.38650000001</v>
+        <v>66915.6565</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71835</v>
+        <v>69538</v>
       </c>
       <c r="C4" t="n">
-        <v>5194.5815</v>
+        <v>5311.7505</v>
       </c>
       <c r="D4" t="n">
-        <v>66640.4185</v>
+        <v>64226.2495</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69162</v>
+        <v>67175</v>
       </c>
       <c r="C5" t="n">
-        <v>5174.980500000001</v>
+        <v>5299.952</v>
       </c>
       <c r="D5" t="n">
-        <v>63987.0195</v>
+        <v>61875.048</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>69265</v>
+        <v>65553</v>
       </c>
       <c r="C6" t="n">
-        <v>5228.214</v>
+        <v>5293.1515</v>
       </c>
       <c r="D6" t="n">
-        <v>64036.786</v>
+        <v>60259.8485</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47776</v>
+        <v>63464</v>
       </c>
       <c r="C7" t="n">
-        <v>5465.2305</v>
+        <v>5324.76</v>
       </c>
       <c r="D7" t="n">
-        <v>42310.7695</v>
+        <v>58139.24</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48551</v>
+        <v>62771</v>
       </c>
       <c r="C8" t="n">
-        <v>6478.023</v>
+        <v>6198.4755</v>
       </c>
       <c r="D8" t="n">
-        <v>42072.977</v>
+        <v>56572.5245</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>78606</v>
+        <v>67385</v>
       </c>
       <c r="C9" t="n">
-        <v>7287.380499999999</v>
+        <v>6632.370499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>71318.6195</v>
+        <v>60752.6295</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>97689</v>
+        <v>72917</v>
       </c>
       <c r="C10" t="n">
-        <v>9017.842499999999</v>
+        <v>7985.929</v>
       </c>
       <c r="D10" t="n">
-        <v>88671.1575</v>
+        <v>64931.071</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>106884</v>
+        <v>83310</v>
       </c>
       <c r="C11" t="n">
-        <v>14472.567</v>
+        <v>13162.0615</v>
       </c>
       <c r="D11" t="n">
-        <v>92411.433</v>
+        <v>70147.9385</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>116889</v>
+        <v>84763</v>
       </c>
       <c r="C12" t="n">
-        <v>16357.7465</v>
+        <v>15499.911</v>
       </c>
       <c r="D12" t="n">
-        <v>100531.2535</v>
+        <v>69263.08900000001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>118659</v>
+        <v>88029</v>
       </c>
       <c r="C13" t="n">
-        <v>16558.8255</v>
+        <v>15978.718</v>
       </c>
       <c r="D13" t="n">
-        <v>102100.1745</v>
+        <v>72050.28200000001</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>124076</v>
+        <v>84308</v>
       </c>
       <c r="C14" t="n">
-        <v>16733.4465</v>
+        <v>15949.85</v>
       </c>
       <c r="D14" t="n">
-        <v>107342.5535</v>
+        <v>68358.14999999999</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>123610</v>
+        <v>88559</v>
       </c>
       <c r="C15" t="n">
-        <v>16967.0395</v>
+        <v>16112.4845</v>
       </c>
       <c r="D15" t="n">
-        <v>106642.9605</v>
+        <v>72446.51549999999</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>123474</v>
+        <v>86021</v>
       </c>
       <c r="C16" t="n">
-        <v>16689.1605</v>
+        <v>16701.4645</v>
       </c>
       <c r="D16" t="n">
-        <v>106784.8395</v>
+        <v>69319.5355</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>107183</v>
+        <v>85554</v>
       </c>
       <c r="C17" t="n">
-        <v>16402.6835</v>
+        <v>16519.7305</v>
       </c>
       <c r="D17" t="n">
-        <v>90780.3165</v>
+        <v>69034.26949999999</v>
       </c>
     </row>
     <row r="18">
@@ -672,90 +672,111 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>102324</v>
+        <v>85145</v>
       </c>
       <c r="C18" t="n">
-        <v>16404.992</v>
+        <v>16574.537</v>
       </c>
       <c r="D18" t="n">
-        <v>85919.008</v>
+        <v>68570.463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>89004</v>
+      </c>
       <c r="C19" t="n">
-        <v>16482.6715</v>
+        <v>16188.1545</v>
       </c>
       <c r="D19" t="n">
-        <v>79144.3965218529</v>
+        <v>72815.8455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>91099</v>
+      </c>
       <c r="C20" t="n">
-        <v>16346.816</v>
+        <v>15598.3275</v>
       </c>
       <c r="D20" t="n">
-        <v>80314.30964363975</v>
+        <v>75500.6725</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>88886</v>
+      </c>
       <c r="C21" t="n">
-        <v>14102.174</v>
+        <v>14119.9695</v>
       </c>
       <c r="D21" t="n">
-        <v>80761.9859478088</v>
+        <v>74766.03049999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>84453</v>
+      </c>
       <c r="C22" t="n">
-        <v>12417.102</v>
+        <v>12189.1525</v>
       </c>
       <c r="D22" t="n">
-        <v>82236.71857656092</v>
+        <v>72263.8475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>78302</v>
+      </c>
       <c r="C23" t="n">
-        <v>9745.787</v>
+        <v>9406.733</v>
       </c>
       <c r="D23" t="n">
-        <v>60893.79318067842</v>
+        <v>68895.26699999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
+      <c r="B24" t="n">
+        <v>73979</v>
+      </c>
       <c r="C24" t="n">
-        <v>6739.6595</v>
+        <v>6502.2755</v>
       </c>
       <c r="D24" t="n">
-        <v>41527.12359352758</v>
+        <v>67476.7245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
+      <c r="B25" t="n">
+        <v>20165</v>
+      </c>
       <c r="C25" t="n">
-        <v>5949.048500000001</v>
+        <v>5603.15</v>
       </c>
       <c r="D25" t="n">
-        <v>69812.7623244882</v>
+        <v>14561.85</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>75475</v>
+        <v>67078</v>
       </c>
       <c r="C2" t="n">
         <v>5554.7135</v>
       </c>
       <c r="D2" t="n">
-        <v>69920.2865</v>
+        <v>61523.2865</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>72275</v>
+        <v>64200</v>
       </c>
       <c r="C3" t="n">
         <v>5359.343500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>66915.6565</v>
+        <v>58840.6565</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>69538</v>
+        <v>62248</v>
       </c>
       <c r="C4" t="n">
         <v>5311.7505</v>
       </c>
       <c r="D4" t="n">
-        <v>64226.2495</v>
+        <v>56936.2495</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>67175</v>
+        <v>60861</v>
       </c>
       <c r="C5" t="n">
         <v>5299.952</v>
       </c>
       <c r="D5" t="n">
-        <v>61875.048</v>
+        <v>55561.048</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65553</v>
+        <v>55982</v>
       </c>
       <c r="C6" t="n">
         <v>5293.1515</v>
       </c>
       <c r="D6" t="n">
-        <v>60259.8485</v>
+        <v>50688.8485</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63464</v>
+        <v>61100</v>
       </c>
       <c r="C7" t="n">
         <v>5324.76</v>
       </c>
       <c r="D7" t="n">
-        <v>58139.24</v>
+        <v>55775.24</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62771</v>
+        <v>61451</v>
       </c>
       <c r="C8" t="n">
         <v>6198.4755</v>
       </c>
       <c r="D8" t="n">
-        <v>56572.5245</v>
+        <v>55252.5245</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>67385</v>
+        <v>65951</v>
       </c>
       <c r="C9" t="n">
         <v>6632.370499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>60752.6295</v>
+        <v>59318.6295</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>72917</v>
+        <v>75046</v>
       </c>
       <c r="C10" t="n">
         <v>7985.929</v>
       </c>
       <c r="D10" t="n">
-        <v>64931.071</v>
+        <v>67060.071</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>83310</v>
+        <v>84778</v>
       </c>
       <c r="C11" t="n">
         <v>13162.0615</v>
       </c>
       <c r="D11" t="n">
-        <v>70147.9385</v>
+        <v>71615.9385</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>84763</v>
+        <v>87637</v>
       </c>
       <c r="C12" t="n">
         <v>15499.911</v>
       </c>
       <c r="D12" t="n">
-        <v>69263.08900000001</v>
+        <v>72137.08900000001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>88029</v>
+        <v>88210</v>
       </c>
       <c r="C13" t="n">
         <v>15978.718</v>
       </c>
       <c r="D13" t="n">
-        <v>72050.28200000001</v>
+        <v>72231.28200000001</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>84308</v>
+        <v>90838</v>
       </c>
       <c r="C14" t="n">
         <v>15949.85</v>
       </c>
       <c r="D14" t="n">
-        <v>68358.14999999999</v>
+        <v>74888.14999999999</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>88559</v>
+        <v>94152</v>
       </c>
       <c r="C15" t="n">
         <v>16112.4845</v>
       </c>
       <c r="D15" t="n">
-        <v>72446.51549999999</v>
+        <v>78039.51549999999</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>86021</v>
+        <v>96251</v>
       </c>
       <c r="C16" t="n">
         <v>16701.4645</v>
       </c>
       <c r="D16" t="n">
-        <v>69319.5355</v>
+        <v>79549.5355</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>85554</v>
+        <v>96983</v>
       </c>
       <c r="C17" t="n">
         <v>16519.7305</v>
       </c>
       <c r="D17" t="n">
-        <v>69034.26949999999</v>
+        <v>80463.26949999999</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>85145</v>
+        <v>95154</v>
       </c>
       <c r="C18" t="n">
         <v>16574.537</v>
       </c>
       <c r="D18" t="n">
-        <v>68570.463</v>
+        <v>78579.463</v>
       </c>
     </row>
     <row r="19">
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>89004</v>
+        <v>98298</v>
       </c>
       <c r="C19" t="n">
         <v>16188.1545</v>
       </c>
       <c r="D19" t="n">
-        <v>72815.8455</v>
+        <v>82109.8455</v>
       </c>
     </row>
     <row r="20">
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>91099</v>
+        <v>94420</v>
       </c>
       <c r="C20" t="n">
         <v>15598.3275</v>
       </c>
       <c r="D20" t="n">
-        <v>75500.6725</v>
+        <v>78821.6725</v>
       </c>
     </row>
     <row r="21">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>88886</v>
+        <v>92856</v>
       </c>
       <c r="C21" t="n">
         <v>14119.9695</v>
       </c>
       <c r="D21" t="n">
-        <v>74766.03049999999</v>
+        <v>78736.03049999999</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>84453</v>
+        <v>88965</v>
       </c>
       <c r="C22" t="n">
         <v>12189.1525</v>
       </c>
       <c r="D22" t="n">
-        <v>72263.8475</v>
+        <v>76775.8475</v>
       </c>
     </row>
     <row r="23">
@@ -742,22 +742,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>78302</v>
+        <v>42562</v>
       </c>
       <c r="C23" t="n">
         <v>9406.733</v>
       </c>
       <c r="D23" t="n">
-        <v>68895.26699999999</v>
+        <v>33155.267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>73979</v>
-      </c>
       <c r="C24" t="n">
         <v>6502.2755</v>
       </c>
@@ -768,9 +765,6 @@
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20165</v>
       </c>
       <c r="C25" t="n">
         <v>5603.15</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67078</v>
+        <v>72056</v>
       </c>
       <c r="C2" t="n">
-        <v>5554.7135</v>
+        <v>5516.6335</v>
       </c>
       <c r="D2" t="n">
-        <v>61523.2865</v>
+        <v>66539.3665</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64200</v>
+        <v>69308</v>
       </c>
       <c r="C3" t="n">
-        <v>5359.343500000001</v>
+        <v>5387.312</v>
       </c>
       <c r="D3" t="n">
-        <v>58840.6565</v>
+        <v>63920.688</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62248</v>
+        <v>65612</v>
       </c>
       <c r="C4" t="n">
-        <v>5311.7505</v>
+        <v>5339.824000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>56936.2495</v>
+        <v>60272.176</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60861</v>
+        <v>64269</v>
       </c>
       <c r="C5" t="n">
-        <v>5299.952</v>
+        <v>5306.819000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>55561.048</v>
+        <v>58962.181</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>55982</v>
+        <v>65136</v>
       </c>
       <c r="C6" t="n">
-        <v>5293.1515</v>
+        <v>5338.83</v>
       </c>
       <c r="D6" t="n">
-        <v>50688.8485</v>
+        <v>59797.17</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>61100</v>
+        <v>71065</v>
       </c>
       <c r="C7" t="n">
-        <v>5324.76</v>
+        <v>5422.714499999999</v>
       </c>
       <c r="D7" t="n">
-        <v>55775.24</v>
+        <v>65642.2855</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>61451</v>
+        <v>70049</v>
       </c>
       <c r="C8" t="n">
-        <v>6198.4755</v>
+        <v>5875.107</v>
       </c>
       <c r="D8" t="n">
-        <v>55252.5245</v>
+        <v>64173.893</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>65951</v>
+        <v>80484</v>
       </c>
       <c r="C9" t="n">
-        <v>6632.370499999999</v>
+        <v>7214.4275</v>
       </c>
       <c r="D9" t="n">
-        <v>59318.6295</v>
+        <v>73269.57249999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>75046</v>
+        <v>94725</v>
       </c>
       <c r="C10" t="n">
-        <v>7985.929</v>
+        <v>8467.018</v>
       </c>
       <c r="D10" t="n">
-        <v>67060.071</v>
+        <v>86257.982</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>84778</v>
+        <v>104123</v>
       </c>
       <c r="C11" t="n">
-        <v>13162.0615</v>
+        <v>13640.6165</v>
       </c>
       <c r="D11" t="n">
-        <v>71615.9385</v>
+        <v>90482.3835</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>87637</v>
+        <v>110312</v>
       </c>
       <c r="C12" t="n">
-        <v>15499.911</v>
+        <v>15763.02</v>
       </c>
       <c r="D12" t="n">
-        <v>72137.08900000001</v>
+        <v>94548.98</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>88210</v>
+        <v>111321</v>
       </c>
       <c r="C13" t="n">
-        <v>15978.718</v>
+        <v>15072.0395</v>
       </c>
       <c r="D13" t="n">
-        <v>72231.28200000001</v>
+        <v>96248.9605</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>90838</v>
+        <v>109259</v>
       </c>
       <c r="C14" t="n">
-        <v>15949.85</v>
+        <v>15259.6675</v>
       </c>
       <c r="D14" t="n">
-        <v>74888.14999999999</v>
+        <v>93999.3325</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>94152</v>
+        <v>113429</v>
       </c>
       <c r="C15" t="n">
-        <v>16112.4845</v>
+        <v>15815.744</v>
       </c>
       <c r="D15" t="n">
-        <v>78039.51549999999</v>
+        <v>97613.25599999999</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>96251</v>
+        <v>114542</v>
       </c>
       <c r="C16" t="n">
-        <v>16701.4645</v>
+        <v>15955.3275</v>
       </c>
       <c r="D16" t="n">
-        <v>79549.5355</v>
+        <v>98586.6725</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>96983</v>
+        <v>99426</v>
       </c>
       <c r="C17" t="n">
-        <v>16519.7305</v>
+        <v>16114.0735</v>
       </c>
       <c r="D17" t="n">
-        <v>80463.26949999999</v>
+        <v>83311.9265</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>95154</v>
+        <v>92477</v>
       </c>
       <c r="C18" t="n">
-        <v>16574.537</v>
+        <v>16384.389</v>
       </c>
       <c r="D18" t="n">
-        <v>78579.463</v>
+        <v>76092.611</v>
       </c>
     </row>
     <row r="19">
@@ -686,69 +686,57 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>98298</v>
+        <v>1237</v>
       </c>
       <c r="C19" t="n">
-        <v>16188.1545</v>
+        <v>15932.637</v>
       </c>
       <c r="D19" t="n">
-        <v>82109.8455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>94420</v>
-      </c>
       <c r="C20" t="n">
-        <v>15598.3275</v>
+        <v>15036.9065</v>
       </c>
       <c r="D20" t="n">
-        <v>78821.6725</v>
+        <v>81334.0935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>92856</v>
-      </c>
       <c r="C21" t="n">
-        <v>14119.9695</v>
+        <v>13330.5025</v>
       </c>
       <c r="D21" t="n">
-        <v>78736.03049999999</v>
+        <v>78578.4975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>88965</v>
-      </c>
       <c r="C22" t="n">
-        <v>12189.1525</v>
+        <v>11770.8115</v>
       </c>
       <c r="D22" t="n">
-        <v>76775.8475</v>
+        <v>77749.1885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>42562</v>
-      </c>
       <c r="C23" t="n">
-        <v>9406.733</v>
+        <v>9312.075499999999</v>
       </c>
       <c r="D23" t="n">
-        <v>33155.267</v>
+        <v>74837.92449999999</v>
       </c>
     </row>
     <row r="24">
@@ -756,10 +744,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6502.2755</v>
+        <v>6773.7985</v>
       </c>
       <c r="D24" t="n">
-        <v>67476.7245</v>
+        <v>54075.2015</v>
       </c>
     </row>
     <row r="25">
@@ -767,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5603.15</v>
+        <v>5542.130999999999</v>
       </c>
       <c r="D25" t="n">
         <v>14561.85</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>72056</v>
+        <v>90862</v>
       </c>
       <c r="C2" t="n">
-        <v>5516.6335</v>
+        <v>5539.9085</v>
       </c>
       <c r="D2" t="n">
-        <v>66539.3665</v>
+        <v>85322.09149999999</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69308</v>
+        <v>71987</v>
       </c>
       <c r="C3" t="n">
-        <v>5387.312</v>
+        <v>5343.505999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>63920.688</v>
+        <v>66643.49400000001</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>65612</v>
+        <v>69101</v>
       </c>
       <c r="C4" t="n">
-        <v>5339.824000000001</v>
+        <v>5250.640500000001</v>
       </c>
       <c r="D4" t="n">
-        <v>60272.176</v>
+        <v>63850.3595</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64269</v>
+        <v>67174</v>
       </c>
       <c r="C5" t="n">
-        <v>5306.819000000001</v>
+        <v>5194.129499999999</v>
       </c>
       <c r="D5" t="n">
-        <v>58962.181</v>
+        <v>61979.8705</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65136</v>
+        <v>67709</v>
       </c>
       <c r="C6" t="n">
-        <v>5338.83</v>
+        <v>5143.397</v>
       </c>
       <c r="D6" t="n">
-        <v>59797.17</v>
+        <v>62565.603</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>71065</v>
+        <v>79680</v>
       </c>
       <c r="C7" t="n">
-        <v>5422.714499999999</v>
+        <v>5188.8305</v>
       </c>
       <c r="D7" t="n">
-        <v>65642.2855</v>
+        <v>74491.1695</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>70049</v>
+        <v>66217</v>
       </c>
       <c r="C8" t="n">
-        <v>5875.107</v>
+        <v>5628.136500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>64173.893</v>
+        <v>60588.8635</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>80484</v>
+        <v>73755</v>
       </c>
       <c r="C9" t="n">
-        <v>7214.4275</v>
+        <v>6549.074000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>73269.57249999999</v>
+        <v>67205.92599999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>94725</v>
+        <v>82980</v>
       </c>
       <c r="C10" t="n">
-        <v>8467.018</v>
+        <v>7809.641</v>
       </c>
       <c r="D10" t="n">
-        <v>86257.982</v>
+        <v>75170.359</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>104123</v>
+        <v>95273</v>
       </c>
       <c r="C11" t="n">
-        <v>13640.6165</v>
+        <v>12977.8705</v>
       </c>
       <c r="D11" t="n">
-        <v>90482.3835</v>
+        <v>82295.1295</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>110312</v>
+        <v>97940</v>
       </c>
       <c r="C12" t="n">
-        <v>15763.02</v>
+        <v>14879.494</v>
       </c>
       <c r="D12" t="n">
-        <v>94548.98</v>
+        <v>83060.50599999999</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>111321</v>
+        <v>95015</v>
       </c>
       <c r="C13" t="n">
-        <v>15072.0395</v>
+        <v>15334.284</v>
       </c>
       <c r="D13" t="n">
-        <v>96248.9605</v>
+        <v>79680.716</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>109259</v>
+        <v>103218</v>
       </c>
       <c r="C14" t="n">
-        <v>15259.6675</v>
+        <v>15538.4565</v>
       </c>
       <c r="D14" t="n">
-        <v>93999.3325</v>
+        <v>87679.5435</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>113429</v>
+        <v>100719</v>
       </c>
       <c r="C15" t="n">
-        <v>15815.744</v>
+        <v>15473.9585</v>
       </c>
       <c r="D15" t="n">
-        <v>97613.25599999999</v>
+        <v>85245.04149999999</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>114542</v>
+        <v>99562</v>
       </c>
       <c r="C16" t="n">
-        <v>15955.3275</v>
+        <v>15459.3285</v>
       </c>
       <c r="D16" t="n">
-        <v>98586.6725</v>
+        <v>84102.6715</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>99426</v>
+        <v>98100</v>
       </c>
       <c r="C17" t="n">
-        <v>16114.0735</v>
+        <v>15733.5675</v>
       </c>
       <c r="D17" t="n">
-        <v>83311.9265</v>
+        <v>82366.4325</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>92477</v>
+        <v>94912</v>
       </c>
       <c r="C18" t="n">
-        <v>16384.389</v>
+        <v>15999.228</v>
       </c>
       <c r="D18" t="n">
-        <v>76092.611</v>
+        <v>78912.772</v>
       </c>
     </row>
     <row r="19">
@@ -686,79 +686,97 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1237</v>
+        <v>93211</v>
       </c>
       <c r="C19" t="n">
-        <v>15932.637</v>
+        <v>15687.07</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>77523.92999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>95142</v>
+      </c>
       <c r="C20" t="n">
-        <v>15036.9065</v>
+        <v>15318.933</v>
       </c>
       <c r="D20" t="n">
-        <v>81334.0935</v>
+        <v>79823.067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>91234</v>
+      </c>
       <c r="C21" t="n">
-        <v>13330.5025</v>
+        <v>13434.6415</v>
       </c>
       <c r="D21" t="n">
-        <v>78578.4975</v>
+        <v>77799.3585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>88757</v>
+      </c>
       <c r="C22" t="n">
-        <v>11770.8115</v>
+        <v>11609.815</v>
       </c>
       <c r="D22" t="n">
-        <v>77749.1885</v>
+        <v>77147.185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>85054</v>
+      </c>
       <c r="C23" t="n">
-        <v>9312.075499999999</v>
+        <v>9103.451000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>74837.92449999999</v>
+        <v>75950.549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
+      <c r="B24" t="n">
+        <v>80176</v>
+      </c>
       <c r="C24" t="n">
-        <v>6773.7985</v>
+        <v>6290.4415</v>
       </c>
       <c r="D24" t="n">
-        <v>54075.2015</v>
+        <v>73885.5585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
+      <c r="B25" t="n">
+        <v>76785</v>
+      </c>
       <c r="C25" t="n">
-        <v>5542.130999999999</v>
+        <v>5217.8665</v>
       </c>
       <c r="D25" t="n">
-        <v>14561.85</v>
+        <v>71567.1335</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>90862</v>
+        <v>65724</v>
       </c>
       <c r="C2" t="n">
-        <v>5539.9085</v>
+        <v>5632.2595</v>
       </c>
       <c r="D2" t="n">
-        <v>85322.09149999999</v>
+        <v>60091.7405</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>71987</v>
+        <v>63085</v>
       </c>
       <c r="C3" t="n">
-        <v>5343.505999999999</v>
+        <v>5478.844000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>66643.49400000001</v>
+        <v>57606.156</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>69101</v>
+        <v>61258</v>
       </c>
       <c r="C4" t="n">
-        <v>5250.640500000001</v>
+        <v>5431.737499999999</v>
       </c>
       <c r="D4" t="n">
-        <v>63850.3595</v>
+        <v>55826.2625</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>67174</v>
+        <v>60272</v>
       </c>
       <c r="C5" t="n">
-        <v>5194.129499999999</v>
+        <v>5351.2935</v>
       </c>
       <c r="D5" t="n">
-        <v>61979.8705</v>
+        <v>54920.7065</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67709</v>
+        <v>63182</v>
       </c>
       <c r="C6" t="n">
-        <v>5143.397</v>
+        <v>5443.7565</v>
       </c>
       <c r="D6" t="n">
-        <v>62565.603</v>
+        <v>57738.2435</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>79680</v>
+        <v>67802</v>
       </c>
       <c r="C7" t="n">
-        <v>5188.8305</v>
+        <v>5521.645500000001</v>
       </c>
       <c r="D7" t="n">
-        <v>74491.1695</v>
+        <v>62280.3545</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>66217</v>
+        <v>69571</v>
       </c>
       <c r="C8" t="n">
-        <v>5628.136500000001</v>
+        <v>6568.996000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>60588.8635</v>
+        <v>63002.004</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>73755</v>
+        <v>81158</v>
       </c>
       <c r="C9" t="n">
-        <v>6549.074000000001</v>
+        <v>7039.0705</v>
       </c>
       <c r="D9" t="n">
-        <v>67205.92599999999</v>
+        <v>74118.9295</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>82980</v>
+        <v>98453</v>
       </c>
       <c r="C10" t="n">
-        <v>7809.641</v>
+        <v>8768.984</v>
       </c>
       <c r="D10" t="n">
-        <v>75170.359</v>
+        <v>89684.016</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>95273</v>
+        <v>108429</v>
       </c>
       <c r="C11" t="n">
-        <v>12977.8705</v>
+        <v>14287.7385</v>
       </c>
       <c r="D11" t="n">
-        <v>82295.1295</v>
+        <v>94141.26149999999</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>97940</v>
+        <v>111739</v>
       </c>
       <c r="C12" t="n">
-        <v>14879.494</v>
+        <v>16203.32</v>
       </c>
       <c r="D12" t="n">
-        <v>83060.50599999999</v>
+        <v>95535.67999999999</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>95015</v>
+        <v>113097</v>
       </c>
       <c r="C13" t="n">
-        <v>15334.284</v>
+        <v>16253.0025</v>
       </c>
       <c r="D13" t="n">
-        <v>79680.716</v>
+        <v>96843.9975</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>103218</v>
+        <v>112752</v>
       </c>
       <c r="C14" t="n">
-        <v>15538.4565</v>
+        <v>16193.9575</v>
       </c>
       <c r="D14" t="n">
-        <v>87679.5435</v>
+        <v>96558.0425</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>100719</v>
+        <v>116975</v>
       </c>
       <c r="C15" t="n">
-        <v>15473.9585</v>
+        <v>16307.025</v>
       </c>
       <c r="D15" t="n">
-        <v>85245.04149999999</v>
+        <v>100667.975</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>99562</v>
+        <v>117642</v>
       </c>
       <c r="C16" t="n">
-        <v>15459.3285</v>
+        <v>16253.9055</v>
       </c>
       <c r="D16" t="n">
-        <v>84102.6715</v>
+        <v>101388.0945</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>98100</v>
+        <v>96422</v>
       </c>
       <c r="C17" t="n">
-        <v>15733.5675</v>
+        <v>15667.071</v>
       </c>
       <c r="D17" t="n">
-        <v>82366.4325</v>
+        <v>80754.929</v>
       </c>
     </row>
     <row r="18">
@@ -672,24 +672,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>94912</v>
+        <v>94648</v>
       </c>
       <c r="C18" t="n">
-        <v>15999.228</v>
+        <v>16597.392</v>
       </c>
       <c r="D18" t="n">
-        <v>78912.772</v>
+        <v>78050.60800000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>93211</v>
-      </c>
       <c r="C19" t="n">
-        <v>15687.07</v>
+        <v>16121.5775</v>
       </c>
       <c r="D19" t="n">
         <v>77523.92999999999</v>
@@ -699,11 +696,8 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>95142</v>
-      </c>
       <c r="C20" t="n">
-        <v>15318.933</v>
+        <v>15277.878</v>
       </c>
       <c r="D20" t="n">
         <v>79823.067</v>
@@ -713,11 +707,8 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>91234</v>
-      </c>
       <c r="C21" t="n">
-        <v>13434.6415</v>
+        <v>13983.214</v>
       </c>
       <c r="D21" t="n">
         <v>77799.3585</v>
@@ -727,11 +718,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>88757</v>
-      </c>
       <c r="C22" t="n">
-        <v>11609.815</v>
+        <v>12008.9865</v>
       </c>
       <c r="D22" t="n">
         <v>77147.185</v>
@@ -741,11 +729,8 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>85054</v>
-      </c>
       <c r="C23" t="n">
-        <v>9103.451000000001</v>
+        <v>9648.002000000002</v>
       </c>
       <c r="D23" t="n">
         <v>75950.549</v>
@@ -755,11 +740,8 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>80176</v>
-      </c>
       <c r="C24" t="n">
-        <v>6290.4415</v>
+        <v>6756.816500000001</v>
       </c>
       <c r="D24" t="n">
         <v>73885.5585</v>
@@ -769,11 +751,8 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>76785</v>
-      </c>
       <c r="C25" t="n">
-        <v>5217.8665</v>
+        <v>6005.93</v>
       </c>
       <c r="D25" t="n">
         <v>71567.1335</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>65724</v>
+        <v>73158</v>
       </c>
       <c r="C2" t="n">
-        <v>5632.2595</v>
+        <v>5416.988499999999</v>
       </c>
       <c r="D2" t="n">
-        <v>60091.7405</v>
+        <v>67741.01150000001</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63085</v>
+        <v>69971</v>
       </c>
       <c r="C3" t="n">
-        <v>5478.844000000001</v>
+        <v>5210.142</v>
       </c>
       <c r="D3" t="n">
-        <v>57606.156</v>
+        <v>64760.858</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>61258</v>
+        <v>67233</v>
       </c>
       <c r="C4" t="n">
-        <v>5431.737499999999</v>
+        <v>5131.699999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>55826.2625</v>
+        <v>62101.3</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60272</v>
+        <v>66774</v>
       </c>
       <c r="C5" t="n">
-        <v>5351.2935</v>
+        <v>5049.197999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>54920.7065</v>
+        <v>61724.802</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63182</v>
+        <v>68427</v>
       </c>
       <c r="C6" t="n">
-        <v>5443.7565</v>
+        <v>5084.9925</v>
       </c>
       <c r="D6" t="n">
-        <v>57738.2435</v>
+        <v>63342.0075</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67802</v>
+        <v>72833</v>
       </c>
       <c r="C7" t="n">
-        <v>5521.645500000001</v>
+        <v>5380.1055</v>
       </c>
       <c r="D7" t="n">
-        <v>62280.3545</v>
+        <v>67452.89449999999</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69571</v>
+        <v>72858</v>
       </c>
       <c r="C8" t="n">
-        <v>6568.996000000001</v>
+        <v>6413.1515</v>
       </c>
       <c r="D8" t="n">
-        <v>63002.004</v>
+        <v>66444.84849999999</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>81158</v>
+        <v>84685</v>
       </c>
       <c r="C9" t="n">
-        <v>7039.0705</v>
+        <v>7207.8405</v>
       </c>
       <c r="D9" t="n">
-        <v>74118.9295</v>
+        <v>77477.15949999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>98453</v>
+        <v>102552</v>
       </c>
       <c r="C10" t="n">
-        <v>8768.984</v>
+        <v>9489.200000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>89684.016</v>
+        <v>93062.8</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>108429</v>
+        <v>112257</v>
       </c>
       <c r="C11" t="n">
-        <v>14287.7385</v>
+        <v>14318.1885</v>
       </c>
       <c r="D11" t="n">
-        <v>94141.26149999999</v>
+        <v>97938.8115</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>111739</v>
+        <v>116157</v>
       </c>
       <c r="C12" t="n">
-        <v>16203.32</v>
+        <v>15340.192</v>
       </c>
       <c r="D12" t="n">
-        <v>95535.67999999999</v>
+        <v>100816.808</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>113097</v>
+        <v>115181</v>
       </c>
       <c r="C13" t="n">
-        <v>16253.0025</v>
+        <v>15589.8715</v>
       </c>
       <c r="D13" t="n">
-        <v>96843.9975</v>
+        <v>99591.12850000001</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>112752</v>
+        <v>118438</v>
       </c>
       <c r="C14" t="n">
-        <v>16193.9575</v>
+        <v>15359.3685</v>
       </c>
       <c r="D14" t="n">
-        <v>96558.0425</v>
+        <v>103078.6315</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>116975</v>
+        <v>118968</v>
       </c>
       <c r="C15" t="n">
-        <v>16307.025</v>
+        <v>15511.44</v>
       </c>
       <c r="D15" t="n">
-        <v>100667.975</v>
+        <v>103456.56</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>117642</v>
+        <v>121806</v>
       </c>
       <c r="C16" t="n">
-        <v>16253.9055</v>
+        <v>15666.4375</v>
       </c>
       <c r="D16" t="n">
-        <v>101388.0945</v>
+        <v>106139.5625</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>96422</v>
+        <v>114966</v>
       </c>
       <c r="C17" t="n">
-        <v>15667.071</v>
+        <v>16125.417</v>
       </c>
       <c r="D17" t="n">
-        <v>80754.929</v>
+        <v>98840.583</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>94648</v>
+        <v>15556</v>
       </c>
       <c r="C18" t="n">
-        <v>16597.392</v>
+        <v>16406.873</v>
       </c>
       <c r="D18" t="n">
-        <v>78050.60800000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16121.5775</v>
+        <v>16163.1645</v>
       </c>
       <c r="D19" t="n">
-        <v>77523.92999999999</v>
+        <v>91921.8355</v>
       </c>
     </row>
     <row r="20">
@@ -697,10 +697,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15277.878</v>
+        <v>15659.7175</v>
       </c>
       <c r="D20" t="n">
-        <v>79823.067</v>
+        <v>91677.2825</v>
       </c>
     </row>
     <row r="21">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13983.214</v>
+        <v>13764.5865</v>
       </c>
       <c r="D21" t="n">
-        <v>77799.3585</v>
+        <v>78811.4135</v>
       </c>
     </row>
     <row r="22">
@@ -719,10 +719,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12008.9865</v>
+        <v>11506.208</v>
       </c>
       <c r="D22" t="n">
-        <v>77147.185</v>
+        <v>80527.792</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9648.002000000002</v>
+        <v>8102.793999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>75950.549</v>
+        <v>59160.206</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +741,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6756.816500000001</v>
+        <v>6308.112999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>73885.5585</v>
+        <v>65087.887</v>
       </c>
     </row>
     <row r="25">
@@ -752,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6005.93</v>
+        <v>5711.482</v>
       </c>
       <c r="D25" t="n">
         <v>71567.1335</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73158</v>
+        <v>74692</v>
       </c>
       <c r="C2" t="n">
-        <v>5416.988499999999</v>
+        <v>5329.484653465346</v>
       </c>
       <c r="D2" t="n">
-        <v>67741.01150000001</v>
+        <v>69362.51534653465</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69971</v>
+        <v>69322</v>
       </c>
       <c r="C3" t="n">
-        <v>5210.142</v>
+        <v>5259.706435643564</v>
       </c>
       <c r="D3" t="n">
-        <v>64760.858</v>
+        <v>64062.29356435643</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67233</v>
+        <v>70822</v>
       </c>
       <c r="C4" t="n">
-        <v>5131.699999999999</v>
+        <v>5163.882673267326</v>
       </c>
       <c r="D4" t="n">
-        <v>62101.3</v>
+        <v>65658.11732673267</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66774</v>
+        <v>66768</v>
       </c>
       <c r="C5" t="n">
-        <v>5049.197999999999</v>
+        <v>5112.713366336634</v>
       </c>
       <c r="D5" t="n">
-        <v>61724.802</v>
+        <v>61655.28663366337</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>68427</v>
+        <v>67176</v>
       </c>
       <c r="C6" t="n">
-        <v>5084.9925</v>
+        <v>5106.558910891089</v>
       </c>
       <c r="D6" t="n">
-        <v>63342.0075</v>
+        <v>62069.44108910891</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>72833</v>
+        <v>69168</v>
       </c>
       <c r="C7" t="n">
-        <v>5380.1055</v>
+        <v>5300.365346534654</v>
       </c>
       <c r="D7" t="n">
-        <v>67452.89449999999</v>
+        <v>63867.63465346534</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>72858</v>
+        <v>69788</v>
       </c>
       <c r="C8" t="n">
-        <v>6413.1515</v>
+        <v>6379.10693069307</v>
       </c>
       <c r="D8" t="n">
-        <v>66444.84849999999</v>
+        <v>63408.89306930693</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>84685</v>
+        <v>81843</v>
       </c>
       <c r="C9" t="n">
-        <v>7207.8405</v>
+        <v>7216.65693069307</v>
       </c>
       <c r="D9" t="n">
-        <v>77477.15949999999</v>
+        <v>74626.34306930692</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>102552</v>
+        <v>102620</v>
       </c>
       <c r="C10" t="n">
-        <v>9489.200000000001</v>
+        <v>8943.754455445545</v>
       </c>
       <c r="D10" t="n">
-        <v>93062.8</v>
+        <v>93676.24554455446</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>112257</v>
+        <v>119386</v>
       </c>
       <c r="C11" t="n">
-        <v>14318.1885</v>
+        <v>13673.303</v>
       </c>
       <c r="D11" t="n">
-        <v>97938.8115</v>
+        <v>105712.697</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>116157</v>
+        <v>116370</v>
       </c>
       <c r="C12" t="n">
-        <v>15340.192</v>
+        <v>15596.091</v>
       </c>
       <c r="D12" t="n">
-        <v>100816.808</v>
+        <v>100773.909</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>115181</v>
+        <v>120373</v>
       </c>
       <c r="C13" t="n">
-        <v>15589.8715</v>
+        <v>15591.495745</v>
       </c>
       <c r="D13" t="n">
-        <v>99591.12850000001</v>
+        <v>104781.504255</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>118438</v>
+        <v>119060</v>
       </c>
       <c r="C14" t="n">
-        <v>15359.3685</v>
+        <v>15952.581855</v>
       </c>
       <c r="D14" t="n">
-        <v>103078.6315</v>
+        <v>103107.418145</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>118968</v>
+        <v>125273</v>
       </c>
       <c r="C15" t="n">
-        <v>15511.44</v>
+        <v>15967.63035</v>
       </c>
       <c r="D15" t="n">
-        <v>103456.56</v>
+        <v>109305.36965</v>
       </c>
     </row>
     <row r="16">
@@ -644,41 +644,35 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>121806</v>
+        <v>121978</v>
       </c>
       <c r="C16" t="n">
-        <v>15666.4375</v>
+        <v>16122.537585</v>
       </c>
       <c r="D16" t="n">
-        <v>106139.5625</v>
+        <v>105855.462415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>114966</v>
-      </c>
       <c r="C17" t="n">
-        <v>16125.417</v>
+        <v>16685.267165</v>
       </c>
       <c r="D17" t="n">
-        <v>98840.583</v>
+        <v>63205.732835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>15556</v>
-      </c>
       <c r="C18" t="n">
-        <v>16406.873</v>
+        <v>16903.41555</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>64148.58444999999</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +680,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16163.1645</v>
+        <v>16563.521765</v>
       </c>
       <c r="D19" t="n">
-        <v>91921.8355</v>
+        <v>64570.478235</v>
       </c>
     </row>
     <row r="20">
@@ -697,10 +691,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15659.7175</v>
+        <v>16239.09007</v>
       </c>
       <c r="D20" t="n">
-        <v>91677.2825</v>
+        <v>63680.90993</v>
       </c>
     </row>
     <row r="21">
@@ -708,10 +702,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13764.5865</v>
+        <v>14649.071815</v>
       </c>
       <c r="D21" t="n">
-        <v>78811.4135</v>
+        <v>63024.928185</v>
       </c>
     </row>
     <row r="22">
@@ -719,10 +713,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11506.208</v>
+        <v>12459.301925</v>
       </c>
       <c r="D22" t="n">
-        <v>80527.792</v>
+        <v>63689.698075</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8102.793999999999</v>
+        <v>9926.142135</v>
       </c>
       <c r="D23" t="n">
-        <v>59160.206</v>
+        <v>62512.857865</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +735,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6308.112999999999</v>
+        <v>6827.198525000001</v>
       </c>
       <c r="D24" t="n">
-        <v>65087.887</v>
+        <v>59950.801475</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +746,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5711.482</v>
+        <v>6013.597064999999</v>
       </c>
       <c r="D25" t="n">
-        <v>71567.1335</v>
+        <v>23066.7285</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>74692</v>
+        <v>16686.6685</v>
       </c>
       <c r="C2" t="n">
-        <v>5329.484653465346</v>
+        <v>5731.74</v>
       </c>
       <c r="D2" t="n">
-        <v>69362.51534653465</v>
+        <v>10954.9285</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69322</v>
+        <v>16181.618</v>
       </c>
       <c r="C3" t="n">
-        <v>5259.706435643564</v>
+        <v>5526.115</v>
       </c>
       <c r="D3" t="n">
-        <v>64062.29356435643</v>
+        <v>10655.503</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70822</v>
+        <v>15829.5828</v>
       </c>
       <c r="C4" t="n">
-        <v>5163.882673267326</v>
+        <v>5390.847</v>
       </c>
       <c r="D4" t="n">
-        <v>65658.11732673267</v>
+        <v>10438.7358</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66768</v>
+        <v>15668.5667</v>
       </c>
       <c r="C5" t="n">
-        <v>5112.713366336634</v>
+        <v>5356.008</v>
       </c>
       <c r="D5" t="n">
-        <v>61655.28663366337</v>
+        <v>10312.5587</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67176</v>
+        <v>15742.5741</v>
       </c>
       <c r="C6" t="n">
-        <v>5106.558910891089</v>
+        <v>5438.279</v>
       </c>
       <c r="D6" t="n">
-        <v>62069.44108910891</v>
+        <v>10304.2951</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>69168</v>
+        <v>16879.6878</v>
       </c>
       <c r="C7" t="n">
-        <v>5300.365346534654</v>
+        <v>5565.175</v>
       </c>
       <c r="D7" t="n">
-        <v>63867.63465346534</v>
+        <v>11314.5128</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69788</v>
+        <v>17433.7432</v>
       </c>
       <c r="C8" t="n">
-        <v>6379.10693069307</v>
+        <v>6573.994000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>63408.89306930693</v>
+        <v>10859.7492</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>81843</v>
+        <v>18994.8993</v>
       </c>
       <c r="C9" t="n">
-        <v>7216.65693069307</v>
+        <v>7376.026</v>
       </c>
       <c r="D9" t="n">
-        <v>74626.34306930692</v>
+        <v>11618.8733</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>102620</v>
+        <v>23161.3159</v>
       </c>
       <c r="C10" t="n">
-        <v>8943.754455445545</v>
+        <v>8830.576999999997</v>
       </c>
       <c r="D10" t="n">
-        <v>93676.24554455446</v>
+        <v>14330.7389</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>119386</v>
+        <v>24740.4738</v>
       </c>
       <c r="C11" t="n">
-        <v>13673.303</v>
+        <v>13925.926</v>
       </c>
       <c r="D11" t="n">
-        <v>105712.697</v>
+        <v>10814.5478</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>116370</v>
+        <v>25525.5523</v>
       </c>
       <c r="C12" t="n">
-        <v>15596.091</v>
+        <v>16103.297</v>
       </c>
       <c r="D12" t="n">
-        <v>100773.909</v>
+        <v>9422.255299999999</v>
       </c>
     </row>
     <row r="13">
@@ -602,55 +602,46 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>120373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15591.495745</v>
+        <v>15849.1235</v>
       </c>
       <c r="D13" t="n">
-        <v>104781.504255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>119060</v>
-      </c>
       <c r="C14" t="n">
-        <v>15952.581855</v>
+        <v>15935.9585</v>
       </c>
       <c r="D14" t="n">
-        <v>103107.418145</v>
+        <v>96816.04149999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>125273</v>
-      </c>
       <c r="C15" t="n">
-        <v>15967.63035</v>
+        <v>15893.2095</v>
       </c>
       <c r="D15" t="n">
-        <v>109305.36965</v>
+        <v>101081.7905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>121978</v>
-      </c>
       <c r="C16" t="n">
-        <v>16122.537585</v>
+        <v>16461.3505</v>
       </c>
       <c r="D16" t="n">
-        <v>105855.462415</v>
+        <v>101180.6495</v>
       </c>
     </row>
     <row r="17">
@@ -658,10 +649,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>16685.267165</v>
+        <v>16893.7965</v>
       </c>
       <c r="D17" t="n">
-        <v>63205.732835</v>
+        <v>79528.2035</v>
       </c>
     </row>
     <row r="18">
@@ -669,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16903.41555</v>
+        <v>16943.689</v>
       </c>
       <c r="D18" t="n">
-        <v>64148.58444999999</v>
+        <v>77704.311</v>
       </c>
     </row>
     <row r="19">
@@ -680,10 +671,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16563.521765</v>
+        <v>15829.6355</v>
       </c>
       <c r="D19" t="n">
-        <v>64570.478235</v>
+        <v>66661.442085</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>16239.09007</v>
+        <v>15704.7975</v>
       </c>
       <c r="D20" t="n">
-        <v>63680.90993</v>
+        <v>67736.5061</v>
       </c>
     </row>
     <row r="21">
@@ -702,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>14649.071815</v>
+        <v>14246.386</v>
       </c>
       <c r="D21" t="n">
-        <v>63024.928185</v>
+        <v>65913.62435500001</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +704,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12459.301925</v>
+        <v>11999.0745</v>
       </c>
       <c r="D22" t="n">
-        <v>63689.698075</v>
+        <v>64058.817675</v>
       </c>
     </row>
     <row r="23">
@@ -724,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9926.142135</v>
+        <v>9654.239000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>62512.857865</v>
+        <v>63120.0028</v>
       </c>
     </row>
     <row r="24">
@@ -735,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6827.198525000001</v>
+        <v>6915.5555</v>
       </c>
       <c r="D24" t="n">
-        <v>59950.801475</v>
+        <v>60502.067025</v>
       </c>
     </row>
     <row r="25">
@@ -746,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6013.597064999999</v>
+        <v>5962.4075</v>
       </c>
       <c r="D25" t="n">
         <v>23066.7285</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16686.6685</v>
+        <v>54000</v>
       </c>
       <c r="C2" t="n">
-        <v>5731.74</v>
+        <v>4944.292321154038</v>
       </c>
       <c r="D2" t="n">
-        <v>10954.9285</v>
+        <v>49055.70767884596</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16181.618</v>
+        <v>50801</v>
       </c>
       <c r="C3" t="n">
-        <v>5526.115</v>
+        <v>4887.559847582665</v>
       </c>
       <c r="D3" t="n">
-        <v>10655.503</v>
+        <v>45913.44015241734</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15829.5828</v>
+        <v>48611</v>
       </c>
       <c r="C4" t="n">
-        <v>5390.847</v>
+        <v>4825.545484664752</v>
       </c>
       <c r="D4" t="n">
-        <v>10438.7358</v>
+        <v>43785.45451533525</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15668.5667</v>
+        <v>46724</v>
       </c>
       <c r="C5" t="n">
-        <v>5356.008</v>
+        <v>4794.057447783162</v>
       </c>
       <c r="D5" t="n">
-        <v>10312.5587</v>
+        <v>41929.94255221684</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15742.5741</v>
+        <v>47566</v>
       </c>
       <c r="C6" t="n">
-        <v>5438.279</v>
+        <v>4794.010622970725</v>
       </c>
       <c r="D6" t="n">
-        <v>10304.2951</v>
+        <v>42771.98937702928</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16879.6878</v>
+        <v>48485</v>
       </c>
       <c r="C7" t="n">
-        <v>5565.175</v>
+        <v>4890.506649537315</v>
       </c>
       <c r="D7" t="n">
-        <v>11314.5128</v>
+        <v>43594.49335046268</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17433.7432</v>
+        <v>47871</v>
       </c>
       <c r="C8" t="n">
-        <v>6573.994000000001</v>
+        <v>5267.449152182856</v>
       </c>
       <c r="D8" t="n">
-        <v>10859.7492</v>
+        <v>42603.55084781715</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18994.8993</v>
+        <v>41983</v>
       </c>
       <c r="C9" t="n">
-        <v>7376.026</v>
+        <v>6573.678702600464</v>
       </c>
       <c r="D9" t="n">
-        <v>11618.8733</v>
+        <v>35409.32129739954</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23161.3159</v>
+        <v>65400</v>
       </c>
       <c r="C10" t="n">
-        <v>8830.576999999997</v>
+        <v>8191.789500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>14330.7389</v>
+        <v>57208.2105</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24740.4738</v>
+        <v>73839</v>
       </c>
       <c r="C11" t="n">
-        <v>13925.926</v>
+        <v>14018.138</v>
       </c>
       <c r="D11" t="n">
-        <v>10814.5478</v>
+        <v>59820.862</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25525.5523</v>
+        <v>77636</v>
       </c>
       <c r="C12" t="n">
-        <v>16103.297</v>
+        <v>14986.9245</v>
       </c>
       <c r="D12" t="n">
-        <v>9422.255299999999</v>
+        <v>62649.0755</v>
       </c>
     </row>
     <row r="13">
@@ -602,46 +602,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>78566</v>
       </c>
       <c r="C13" t="n">
-        <v>15849.1235</v>
+        <v>14980.626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>63585.374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>79318</v>
+      </c>
       <c r="C14" t="n">
-        <v>15935.9585</v>
+        <v>15169.25375</v>
       </c>
       <c r="D14" t="n">
-        <v>96816.04149999999</v>
+        <v>64148.74625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>83095</v>
+      </c>
       <c r="C15" t="n">
-        <v>15893.2095</v>
+        <v>15666.69225</v>
       </c>
       <c r="D15" t="n">
-        <v>101081.7905</v>
+        <v>67428.30775000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>51910</v>
+      </c>
       <c r="C16" t="n">
-        <v>16461.3505</v>
+        <v>15813.73925</v>
       </c>
       <c r="D16" t="n">
-        <v>101180.6495</v>
+        <v>36096.26075</v>
       </c>
     </row>
     <row r="17">
@@ -649,10 +658,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>16893.7965</v>
+        <v>16092.652</v>
       </c>
       <c r="D17" t="n">
-        <v>79528.2035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -660,10 +669,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16943.689</v>
+        <v>16268.66525</v>
       </c>
       <c r="D18" t="n">
-        <v>77704.311</v>
+        <v>1768.269410000001</v>
       </c>
     </row>
     <row r="19">
@@ -671,10 +680,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15829.6355</v>
+        <v>16049.11175</v>
       </c>
       <c r="D19" t="n">
-        <v>66661.442085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -682,10 +691,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15704.7975</v>
+        <v>14955.2725</v>
       </c>
       <c r="D20" t="n">
-        <v>67736.5061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +702,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>14246.386</v>
+        <v>13776.544</v>
       </c>
       <c r="D21" t="n">
-        <v>65913.62435500001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -704,10 +713,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11999.0745</v>
+        <v>12164.7975</v>
       </c>
       <c r="D22" t="n">
-        <v>64058.817675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9654.239000000001</v>
+        <v>9625.974749999999</v>
       </c>
       <c r="D23" t="n">
-        <v>63120.0028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -726,10 +735,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6915.5555</v>
+        <v>6491.415499999999</v>
       </c>
       <c r="D24" t="n">
-        <v>60502.067025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -737,10 +746,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5962.4075</v>
+        <v>5924.492750000001</v>
       </c>
       <c r="D25" t="n">
-        <v>23066.7285</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>54000</v>
+        <v>44172</v>
       </c>
       <c r="C2" t="n">
-        <v>4944.292321154038</v>
+        <v>5694.447073155357</v>
       </c>
       <c r="D2" t="n">
-        <v>49055.70767884596</v>
+        <v>38477.55292684464</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>50801</v>
+        <v>42224</v>
       </c>
       <c r="C3" t="n">
-        <v>4887.559847582665</v>
+        <v>5603.598815434763</v>
       </c>
       <c r="D3" t="n">
-        <v>45913.44015241734</v>
+        <v>36620.40118456523</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>48611</v>
+        <v>40753</v>
       </c>
       <c r="C4" t="n">
-        <v>4825.545484664752</v>
+        <v>5504.439695743004</v>
       </c>
       <c r="D4" t="n">
-        <v>43785.45451533525</v>
+        <v>35248.56030425699</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46724</v>
+        <v>39651</v>
       </c>
       <c r="C5" t="n">
-        <v>4794.057447783162</v>
+        <v>5434.829198104781</v>
       </c>
       <c r="D5" t="n">
-        <v>41929.94255221684</v>
+        <v>34216.17080189522</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47566</v>
+        <v>40400</v>
       </c>
       <c r="C6" t="n">
-        <v>4794.010622970725</v>
+        <v>5477.095567269553</v>
       </c>
       <c r="D6" t="n">
-        <v>42771.98937702928</v>
+        <v>34922.90443273044</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>48485</v>
+        <v>41765</v>
       </c>
       <c r="C7" t="n">
-        <v>4890.506649537315</v>
+        <v>5780.126988954585</v>
       </c>
       <c r="D7" t="n">
-        <v>43594.49335046268</v>
+        <v>35984.87301104541</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47871</v>
+        <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>5267.449152182856</v>
+        <v>6039.323408975071</v>
       </c>
       <c r="D8" t="n">
-        <v>42603.55084781715</v>
+        <v>37061.67659102493</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41983</v>
+        <v>48693</v>
       </c>
       <c r="C9" t="n">
-        <v>6573.678702600464</v>
+        <v>6818.027790699687</v>
       </c>
       <c r="D9" t="n">
-        <v>35409.32129739954</v>
+        <v>41874.97220930031</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>65400</v>
+        <v>56029</v>
       </c>
       <c r="C10" t="n">
-        <v>8191.789500000001</v>
+        <v>8312.497000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>57208.2105</v>
+        <v>47716.503</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>73839</v>
+        <v>62011</v>
       </c>
       <c r="C11" t="n">
-        <v>14018.138</v>
+        <v>14224.088055</v>
       </c>
       <c r="D11" t="n">
-        <v>59820.862</v>
+        <v>47786.911945</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>77636</v>
+        <v>62360</v>
       </c>
       <c r="C12" t="n">
-        <v>14986.9245</v>
+        <v>14992.3235</v>
       </c>
       <c r="D12" t="n">
-        <v>62649.0755</v>
+        <v>47367.6765</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>78566</v>
+        <v>61531</v>
       </c>
       <c r="C13" t="n">
-        <v>14980.626</v>
+        <v>15133.654</v>
       </c>
       <c r="D13" t="n">
-        <v>63585.374</v>
+        <v>46397.346</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>79318</v>
+        <v>61661</v>
       </c>
       <c r="C14" t="n">
-        <v>15169.25375</v>
+        <v>14810.5425</v>
       </c>
       <c r="D14" t="n">
-        <v>64148.74625</v>
+        <v>46850.4575</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>83095</v>
+        <v>63303</v>
       </c>
       <c r="C15" t="n">
-        <v>15666.69225</v>
+        <v>14968.454</v>
       </c>
       <c r="D15" t="n">
-        <v>67428.30775000001</v>
+        <v>48334.546</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>51910</v>
+        <v>45530</v>
       </c>
       <c r="C16" t="n">
-        <v>15813.73925</v>
+        <v>15674.209</v>
       </c>
       <c r="D16" t="n">
-        <v>36096.26075</v>
+        <v>29855.791</v>
       </c>
     </row>
     <row r="17">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>16092.652</v>
+        <v>16353.4195</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16268.66525</v>
+        <v>16764.4865</v>
       </c>
       <c r="D18" t="n">
         <v>1768.269410000001</v>
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16049.11175</v>
+        <v>16629.4945</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>14955.2725</v>
+        <v>16025.2325</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13776.544</v>
+        <v>14539.505</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12164.7975</v>
+        <v>12603.773</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9625.974749999999</v>
+        <v>9665.7935</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6491.415499999999</v>
+        <v>6367.0695</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5924.492750000001</v>
+        <v>5794.098</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45530</v>
+        <v>61846</v>
       </c>
       <c r="C16" t="n">
         <v>15674.209</v>
       </c>
       <c r="D16" t="n">
-        <v>29855.791</v>
+        <v>46171.791</v>
       </c>
     </row>
     <row r="17">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -657,22 +657,28 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>59827</v>
+      </c>
       <c r="C17" t="n">
         <v>16353.4195</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>43473.5805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>55356</v>
+      </c>
       <c r="C18" t="n">
         <v>16764.4865</v>
       </c>
       <c r="D18" t="n">
-        <v>1768.269410000001</v>
+        <v>38591.5135</v>
       </c>
     </row>
     <row r="19">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -672,68 +672,83 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>55356</v>
+        <v>58430</v>
       </c>
       <c r="C18" t="n">
         <v>16764.4865</v>
       </c>
       <c r="D18" t="n">
-        <v>38591.5135</v>
+        <v>41665.5135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>56357</v>
+      </c>
       <c r="C19" t="n">
         <v>16629.4945</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>39727.5055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>55191</v>
+      </c>
       <c r="C20" t="n">
         <v>16025.2325</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>39165.7675</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>52357</v>
+      </c>
       <c r="C21" t="n">
         <v>14539.505</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>37817.495</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>50614</v>
+      </c>
       <c r="C22" t="n">
         <v>12603.773</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38010.227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>47951</v>
+      </c>
       <c r="C23" t="n">
         <v>9665.7935</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>38285.2065</v>
       </c>
     </row>
     <row r="24">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>44172</v>
+        <v>39477</v>
       </c>
       <c r="C2" t="n">
-        <v>5694.447073155357</v>
+        <v>5801.188</v>
       </c>
       <c r="D2" t="n">
-        <v>38477.55292684464</v>
+        <v>33675.812</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>42224</v>
+        <v>37915</v>
       </c>
       <c r="C3" t="n">
-        <v>5603.598815434763</v>
+        <v>5641.719000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>36620.40118456523</v>
+        <v>32273.281</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40753</v>
+        <v>36600</v>
       </c>
       <c r="C4" t="n">
-        <v>5504.439695743004</v>
+        <v>5541.0945</v>
       </c>
       <c r="D4" t="n">
-        <v>35248.56030425699</v>
+        <v>31058.9055</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39651</v>
+        <v>35560</v>
       </c>
       <c r="C5" t="n">
-        <v>5434.829198104781</v>
+        <v>5516.280000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>34216.17080189522</v>
+        <v>30043.72</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40400</v>
+        <v>35955</v>
       </c>
       <c r="C6" t="n">
-        <v>5477.095567269553</v>
+        <v>5497.001</v>
       </c>
       <c r="D6" t="n">
-        <v>34922.90443273044</v>
+        <v>30457.999</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41765</v>
+        <v>38201</v>
       </c>
       <c r="C7" t="n">
-        <v>5780.126988954585</v>
+        <v>5761.397999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>35984.87301104541</v>
+        <v>32439.602</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43101</v>
+        <v>39591</v>
       </c>
       <c r="C8" t="n">
-        <v>6039.323408975071</v>
+        <v>6103.384</v>
       </c>
       <c r="D8" t="n">
-        <v>37061.67659102493</v>
+        <v>33487.616</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48693</v>
+        <v>43811</v>
       </c>
       <c r="C9" t="n">
-        <v>6818.027790699687</v>
+        <v>6908.593</v>
       </c>
       <c r="D9" t="n">
-        <v>41874.97220930031</v>
+        <v>36902.407</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>56029</v>
+        <v>53945</v>
       </c>
       <c r="C10" t="n">
-        <v>8312.497000000001</v>
+        <v>8421.428500000002</v>
       </c>
       <c r="D10" t="n">
-        <v>47716.503</v>
+        <v>45523.5715</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>62011</v>
+        <v>60389</v>
       </c>
       <c r="C11" t="n">
-        <v>14224.088055</v>
+        <v>14998.9355</v>
       </c>
       <c r="D11" t="n">
-        <v>47786.911945</v>
+        <v>45390.0645</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>62360</v>
+        <v>62710</v>
       </c>
       <c r="C12" t="n">
-        <v>14992.3235</v>
+        <v>14970.028</v>
       </c>
       <c r="D12" t="n">
-        <v>47367.6765</v>
+        <v>47739.972</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>61531</v>
+        <v>64109</v>
       </c>
       <c r="C13" t="n">
-        <v>15133.654</v>
+        <v>15231.207</v>
       </c>
       <c r="D13" t="n">
-        <v>46397.346</v>
+        <v>48877.793</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>61661</v>
+        <v>64926</v>
       </c>
       <c r="C14" t="n">
-        <v>14810.5425</v>
+        <v>15435.473</v>
       </c>
       <c r="D14" t="n">
-        <v>46850.4575</v>
+        <v>49490.527</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>63303</v>
+        <v>62494</v>
       </c>
       <c r="C15" t="n">
-        <v>14968.454</v>
+        <v>15934.069</v>
       </c>
       <c r="D15" t="n">
-        <v>48334.546</v>
+        <v>46559.931</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>61846</v>
+        <v>65765</v>
       </c>
       <c r="C16" t="n">
-        <v>15674.209</v>
+        <v>16001.6455</v>
       </c>
       <c r="D16" t="n">
-        <v>46171.791</v>
+        <v>49763.3545</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>59827</v>
+        <v>45248</v>
       </c>
       <c r="C17" t="n">
-        <v>16353.4195</v>
+        <v>16435.614</v>
       </c>
       <c r="D17" t="n">
-        <v>43473.5805</v>
+        <v>28812.386</v>
       </c>
     </row>
     <row r="18">
@@ -672,24 +672,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>58430</v>
+        <v>6124</v>
       </c>
       <c r="C18" t="n">
-        <v>16764.4865</v>
+        <v>17178.1825</v>
       </c>
       <c r="D18" t="n">
-        <v>41665.5135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>56357</v>
-      </c>
       <c r="C19" t="n">
-        <v>16629.4945</v>
+        <v>16939.003</v>
       </c>
       <c r="D19" t="n">
         <v>39727.5055</v>
@@ -699,11 +696,8 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>55191</v>
-      </c>
       <c r="C20" t="n">
-        <v>16025.2325</v>
+        <v>16685.8825</v>
       </c>
       <c r="D20" t="n">
         <v>39165.7675</v>
@@ -713,11 +707,8 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>52357</v>
-      </c>
       <c r="C21" t="n">
-        <v>14539.505</v>
+        <v>15197.4365</v>
       </c>
       <c r="D21" t="n">
         <v>37817.495</v>
@@ -727,11 +718,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>50614</v>
-      </c>
       <c r="C22" t="n">
-        <v>12603.773</v>
+        <v>13342.395</v>
       </c>
       <c r="D22" t="n">
         <v>38010.227</v>
@@ -741,11 +729,8 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>47951</v>
-      </c>
       <c r="C23" t="n">
-        <v>9665.7935</v>
+        <v>9716.890500000001</v>
       </c>
       <c r="D23" t="n">
         <v>38285.2065</v>
@@ -756,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6367.0695</v>
+        <v>6391.799999999999</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -767,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5794.098</v>
+        <v>5848.197</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6124</v>
+        <v>17275</v>
       </c>
       <c r="C18" t="n">
         <v>17178.1825</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>96.81750000000102</v>
       </c>
     </row>
     <row r="19">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>39477</v>
+        <v>33061</v>
       </c>
       <c r="C2" t="n">
-        <v>5801.188</v>
+        <v>5005.48337366473</v>
       </c>
       <c r="D2" t="n">
-        <v>33675.812</v>
+        <v>28055.51662633527</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>37915</v>
+        <v>31828</v>
       </c>
       <c r="C3" t="n">
-        <v>5641.719000000001</v>
+        <v>4922.298456099087</v>
       </c>
       <c r="D3" t="n">
-        <v>32273.281</v>
+        <v>26905.70154390091</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36600</v>
+        <v>30574</v>
       </c>
       <c r="C4" t="n">
-        <v>5541.0945</v>
+        <v>4850.625419333438</v>
       </c>
       <c r="D4" t="n">
-        <v>31058.9055</v>
+        <v>25723.37458066656</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35560</v>
+        <v>29643</v>
       </c>
       <c r="C5" t="n">
-        <v>5516.280000000001</v>
+        <v>4797.274898040722</v>
       </c>
       <c r="D5" t="n">
-        <v>30043.72</v>
+        <v>24845.72510195928</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35955</v>
+        <v>29848</v>
       </c>
       <c r="C6" t="n">
-        <v>5497.001</v>
+        <v>4859.095012476347</v>
       </c>
       <c r="D6" t="n">
-        <v>30457.999</v>
+        <v>24988.90498752365</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38201</v>
+        <v>30796</v>
       </c>
       <c r="C7" t="n">
-        <v>5761.397999999999</v>
+        <v>4960.889853826959</v>
       </c>
       <c r="D7" t="n">
-        <v>32439.602</v>
+        <v>25835.11014617304</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39591</v>
+        <v>31613</v>
       </c>
       <c r="C8" t="n">
-        <v>6103.384</v>
+        <v>5211.449593293681</v>
       </c>
       <c r="D8" t="n">
-        <v>33487.616</v>
+        <v>26401.55040670632</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43811</v>
+        <v>34939</v>
       </c>
       <c r="C9" t="n">
-        <v>6908.593</v>
+        <v>6049.649550323782</v>
       </c>
       <c r="D9" t="n">
-        <v>36902.407</v>
+        <v>28889.35044967622</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53945</v>
+        <v>41934</v>
       </c>
       <c r="C10" t="n">
-        <v>8421.428500000002</v>
+        <v>8417.127547097272</v>
       </c>
       <c r="D10" t="n">
-        <v>45523.5715</v>
+        <v>33516.87245290272</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>60389</v>
+        <v>43152</v>
       </c>
       <c r="C11" t="n">
-        <v>14998.9355</v>
+        <v>13902.175</v>
       </c>
       <c r="D11" t="n">
-        <v>45390.0645</v>
+        <v>29249.825</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>62710</v>
+        <v>44379</v>
       </c>
       <c r="C12" t="n">
-        <v>14970.028</v>
+        <v>15210.828</v>
       </c>
       <c r="D12" t="n">
-        <v>47739.972</v>
+        <v>29168.172</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>64109</v>
+        <v>45163</v>
       </c>
       <c r="C13" t="n">
-        <v>15231.207</v>
+        <v>15097.205</v>
       </c>
       <c r="D13" t="n">
-        <v>48877.793</v>
+        <v>30065.795</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>64926</v>
+        <v>45347</v>
       </c>
       <c r="C14" t="n">
-        <v>15435.473</v>
+        <v>14468.754</v>
       </c>
       <c r="D14" t="n">
-        <v>49490.527</v>
+        <v>30878.246</v>
       </c>
     </row>
     <row r="15">
@@ -630,24 +630,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>62494</v>
+        <v>47292</v>
       </c>
       <c r="C15" t="n">
-        <v>15934.069</v>
+        <v>14615.9345</v>
       </c>
       <c r="D15" t="n">
-        <v>46559.931</v>
+        <v>32676.0655</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>65765</v>
-      </c>
       <c r="C16" t="n">
-        <v>16001.6455</v>
+        <v>15642.9465</v>
       </c>
       <c r="D16" t="n">
         <v>49763.3545</v>
@@ -657,11 +654,8 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>45248</v>
-      </c>
       <c r="C17" t="n">
-        <v>16435.614</v>
+        <v>15864.0115</v>
       </c>
       <c r="D17" t="n">
         <v>28812.386</v>
@@ -671,11 +665,8 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>17275</v>
-      </c>
       <c r="C18" t="n">
-        <v>17178.1825</v>
+        <v>16275.092</v>
       </c>
       <c r="D18" t="n">
         <v>96.81750000000102</v>
@@ -686,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16939.003</v>
+        <v>16265.2175</v>
       </c>
       <c r="D19" t="n">
         <v>39727.5055</v>
@@ -697,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>16685.8825</v>
+        <v>15390.046</v>
       </c>
       <c r="D20" t="n">
         <v>39165.7675</v>
@@ -708,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>15197.4365</v>
+        <v>13874.261</v>
       </c>
       <c r="D21" t="n">
         <v>37817.495</v>
@@ -719,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>13342.395</v>
+        <v>11951.5345</v>
       </c>
       <c r="D22" t="n">
         <v>38010.227</v>
@@ -730,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9716.890500000001</v>
+        <v>9041.0965</v>
       </c>
       <c r="D23" t="n">
         <v>38285.2065</v>
@@ -741,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6391.799999999999</v>
+        <v>6150.5125</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -752,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5848.197</v>
+        <v>5731.305</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>33061</v>
+        <v>33975</v>
       </c>
       <c r="C2" t="n">
-        <v>5005.48337366473</v>
+        <v>5801.188</v>
       </c>
       <c r="D2" t="n">
-        <v>28055.51662633527</v>
+        <v>28173.812</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31828</v>
+        <v>32265</v>
       </c>
       <c r="C3" t="n">
-        <v>4922.298456099087</v>
+        <v>5641.719000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>26905.70154390091</v>
+        <v>26623.281</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30574</v>
+        <v>31121</v>
       </c>
       <c r="C4" t="n">
-        <v>4850.625419333438</v>
+        <v>5541.0945</v>
       </c>
       <c r="D4" t="n">
-        <v>25723.37458066656</v>
+        <v>25579.9055</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29643</v>
+        <v>30363</v>
       </c>
       <c r="C5" t="n">
-        <v>4797.274898040722</v>
+        <v>5516.280000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>24845.72510195928</v>
+        <v>24846.72</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29848</v>
+        <v>32040</v>
       </c>
       <c r="C6" t="n">
-        <v>4859.095012476347</v>
+        <v>5497.001</v>
       </c>
       <c r="D6" t="n">
-        <v>24988.90498752365</v>
+        <v>26542.999</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30796</v>
+        <v>32872</v>
       </c>
       <c r="C7" t="n">
-        <v>4960.889853826959</v>
+        <v>5761.397999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>25835.11014617304</v>
+        <v>27110.602</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31613</v>
+        <v>33186</v>
       </c>
       <c r="C8" t="n">
-        <v>5211.449593293681</v>
+        <v>6103.384</v>
       </c>
       <c r="D8" t="n">
-        <v>26401.55040670632</v>
+        <v>27082.616</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34939</v>
+        <v>35580</v>
       </c>
       <c r="C9" t="n">
-        <v>6049.649550323782</v>
+        <v>6908.593</v>
       </c>
       <c r="D9" t="n">
-        <v>28889.35044967622</v>
+        <v>28671.407</v>
       </c>
     </row>
     <row r="10">
@@ -560,24 +560,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41934</v>
+        <v>25946</v>
       </c>
       <c r="C10" t="n">
-        <v>8417.127547097272</v>
+        <v>8421.428500000002</v>
       </c>
       <c r="D10" t="n">
-        <v>33516.87245290272</v>
+        <v>17524.5715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>43152</v>
-      </c>
       <c r="C11" t="n">
-        <v>13902.175</v>
+        <v>14998.9355</v>
       </c>
       <c r="D11" t="n">
         <v>29249.825</v>
@@ -587,11 +584,8 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>44379</v>
-      </c>
       <c r="C12" t="n">
-        <v>15210.828</v>
+        <v>14970.028</v>
       </c>
       <c r="D12" t="n">
         <v>29168.172</v>
@@ -601,11 +595,8 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>45163</v>
-      </c>
       <c r="C13" t="n">
-        <v>15097.205</v>
+        <v>15231.207</v>
       </c>
       <c r="D13" t="n">
         <v>30065.795</v>
@@ -615,11 +606,8 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>45347</v>
-      </c>
       <c r="C14" t="n">
-        <v>14468.754</v>
+        <v>15435.473</v>
       </c>
       <c r="D14" t="n">
         <v>30878.246</v>
@@ -629,11 +617,8 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>47292</v>
-      </c>
       <c r="C15" t="n">
-        <v>14615.9345</v>
+        <v>15934.069</v>
       </c>
       <c r="D15" t="n">
         <v>32676.0655</v>
@@ -644,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15642.9465</v>
+        <v>16001.6455</v>
       </c>
       <c r="D16" t="n">
         <v>49763.3545</v>
@@ -655,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>15864.0115</v>
+        <v>16435.614</v>
       </c>
       <c r="D17" t="n">
         <v>28812.386</v>
@@ -666,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>16275.092</v>
+        <v>17178.1825</v>
       </c>
       <c r="D18" t="n">
         <v>96.81750000000102</v>
@@ -677,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>16265.2175</v>
+        <v>16939.003</v>
       </c>
       <c r="D19" t="n">
         <v>39727.5055</v>
@@ -688,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>15390.046</v>
+        <v>16685.8825</v>
       </c>
       <c r="D20" t="n">
         <v>39165.7675</v>
@@ -699,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13874.261</v>
+        <v>15197.4365</v>
       </c>
       <c r="D21" t="n">
         <v>37817.495</v>
@@ -710,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11951.5345</v>
+        <v>13342.395</v>
       </c>
       <c r="D22" t="n">
         <v>38010.227</v>
@@ -721,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9041.0965</v>
+        <v>9716.890500000001</v>
       </c>
       <c r="D23" t="n">
         <v>38285.2065</v>
@@ -732,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6150.5125</v>
+        <v>6391.799999999999</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -743,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5731.305</v>
+        <v>5848.197</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25946</v>
+        <v>41595</v>
       </c>
       <c r="C10" t="n">
         <v>8421.428500000002</v>
       </c>
       <c r="D10" t="n">
-        <v>17524.5715</v>
+        <v>33173.5715</v>
       </c>
     </row>
     <row r="11">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -573,55 +573,70 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="n">
+        <v>45256</v>
+      </c>
       <c r="C11" t="n">
         <v>14998.9355</v>
       </c>
       <c r="D11" t="n">
-        <v>29249.825</v>
+        <v>30257.0645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
+      <c r="B12" t="n">
+        <v>46730</v>
+      </c>
       <c r="C12" t="n">
         <v>14970.028</v>
       </c>
       <c r="D12" t="n">
-        <v>29168.172</v>
+        <v>31759.972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="n">
+        <v>46144</v>
+      </c>
       <c r="C13" t="n">
         <v>15231.207</v>
       </c>
       <c r="D13" t="n">
-        <v>30065.795</v>
+        <v>30912.793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>45993</v>
+      </c>
       <c r="C14" t="n">
         <v>15435.473</v>
       </c>
       <c r="D14" t="n">
-        <v>30878.246</v>
+        <v>30557.527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>30946</v>
+      </c>
       <c r="C15" t="n">
         <v>15934.069</v>
       </c>
       <c r="D15" t="n">
-        <v>32676.0655</v>
+        <v>15011.931</v>
       </c>
     </row>
     <row r="16">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>33975</v>
+        <v>36728</v>
       </c>
       <c r="C2" t="n">
-        <v>5801.188</v>
+        <v>5799.800999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>28173.812</v>
+        <v>30928.199</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>32265</v>
+        <v>35269</v>
       </c>
       <c r="C3" t="n">
-        <v>5641.719000000001</v>
+        <v>5649.136500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>26623.281</v>
+        <v>29619.8635</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31121</v>
+        <v>33348</v>
       </c>
       <c r="C4" t="n">
-        <v>5541.0945</v>
+        <v>5554.8325</v>
       </c>
       <c r="D4" t="n">
-        <v>25579.9055</v>
+        <v>27793.1675</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30363</v>
+        <v>31700</v>
       </c>
       <c r="C5" t="n">
-        <v>5516.280000000001</v>
+        <v>5481.98</v>
       </c>
       <c r="D5" t="n">
-        <v>24846.72</v>
+        <v>26218.02</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32040</v>
+        <v>30762</v>
       </c>
       <c r="C6" t="n">
-        <v>5497.001</v>
+        <v>5456.8815</v>
       </c>
       <c r="D6" t="n">
-        <v>26542.999</v>
+        <v>25305.1185</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32872</v>
+        <v>30953</v>
       </c>
       <c r="C7" t="n">
-        <v>5761.397999999999</v>
+        <v>5512.395</v>
       </c>
       <c r="D7" t="n">
-        <v>27110.602</v>
+        <v>25440.605</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33186</v>
+        <v>31330</v>
       </c>
       <c r="C8" t="n">
-        <v>6103.384</v>
+        <v>5765.477227722772</v>
       </c>
       <c r="D8" t="n">
-        <v>27082.616</v>
+        <v>25564.52277227723</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35580</v>
+        <v>32595</v>
       </c>
       <c r="C9" t="n">
-        <v>6908.593</v>
+        <v>6519.4465</v>
       </c>
       <c r="D9" t="n">
-        <v>28671.407</v>
+        <v>26075.5535</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41595</v>
+        <v>36208</v>
       </c>
       <c r="C10" t="n">
-        <v>8421.428500000002</v>
+        <v>7901.5895</v>
       </c>
       <c r="D10" t="n">
-        <v>33173.5715</v>
+        <v>28306.4105</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45256</v>
+        <v>39069</v>
       </c>
       <c r="C11" t="n">
-        <v>14998.9355</v>
+        <v>13052.0005</v>
       </c>
       <c r="D11" t="n">
-        <v>30257.0645</v>
+        <v>26016.9995</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46730</v>
+        <v>39884</v>
       </c>
       <c r="C12" t="n">
-        <v>14970.028</v>
+        <v>14886.7985</v>
       </c>
       <c r="D12" t="n">
-        <v>31759.972</v>
+        <v>24997.2015</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46144</v>
+        <v>39218</v>
       </c>
       <c r="C13" t="n">
-        <v>15231.207</v>
+        <v>14810.005</v>
       </c>
       <c r="D13" t="n">
-        <v>30912.793</v>
+        <v>24407.995</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45993</v>
+        <v>38683</v>
       </c>
       <c r="C14" t="n">
-        <v>15435.473</v>
+        <v>14699.3385</v>
       </c>
       <c r="D14" t="n">
-        <v>30557.527</v>
+        <v>23983.6615</v>
       </c>
     </row>
     <row r="15">
@@ -630,57 +630,69 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30946</v>
+        <v>40878</v>
       </c>
       <c r="C15" t="n">
-        <v>15934.069</v>
+        <v>15357.636</v>
       </c>
       <c r="D15" t="n">
-        <v>15011.931</v>
+        <v>25520.364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>41508</v>
+      </c>
       <c r="C16" t="n">
-        <v>16001.6455</v>
+        <v>15432.207</v>
       </c>
       <c r="D16" t="n">
-        <v>49763.3545</v>
+        <v>26075.793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>40766</v>
+      </c>
       <c r="C17" t="n">
-        <v>16435.614</v>
+        <v>15338.9075</v>
       </c>
       <c r="D17" t="n">
-        <v>28812.386</v>
+        <v>25427.0925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>38994</v>
+      </c>
       <c r="C18" t="n">
-        <v>17178.1825</v>
+        <v>15792.80217625723</v>
       </c>
       <c r="D18" t="n">
-        <v>96.81750000000102</v>
+        <v>23201.19782374277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>36246</v>
+      </c>
       <c r="C19" t="n">
-        <v>16939.003</v>
+        <v>15557.50171551809</v>
       </c>
       <c r="D19" t="n">
-        <v>39727.5055</v>
+        <v>20688.49828448191</v>
       </c>
     </row>
     <row r="20">
@@ -688,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>16685.8825</v>
+        <v>15152.49877462994</v>
       </c>
       <c r="D20" t="n">
         <v>39165.7675</v>
@@ -699,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>15197.4365</v>
+        <v>13812.90902852661</v>
       </c>
       <c r="D21" t="n">
         <v>37817.495</v>
@@ -710,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>13342.395</v>
+        <v>12007.84432898735</v>
       </c>
       <c r="D22" t="n">
         <v>38010.227</v>
@@ -721,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9716.890500000001</v>
+        <v>9523.143</v>
       </c>
       <c r="D23" t="n">
         <v>38285.2065</v>
@@ -732,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6391.799999999999</v>
+        <v>6375.7855</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -743,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5848.197</v>
+        <v>5494.996500000001</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -699,11 +699,14 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>15680</v>
+      </c>
       <c r="C20" t="n">
         <v>15152.49877462994</v>
       </c>
       <c r="D20" t="n">
-        <v>39165.7675</v>
+        <v>527.5012253700606</v>
       </c>
     </row>
     <row r="21">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>36246</v>
+        <v>39323</v>
       </c>
       <c r="C19" t="n">
         <v>15557.50171551809</v>
       </c>
       <c r="D19" t="n">
-        <v>20688.49828448191</v>
+        <v>23765.49828448191</v>
       </c>
     </row>
     <row r="20">
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15680</v>
+        <v>41039</v>
       </c>
       <c r="C20" t="n">
         <v>15152.49877462994</v>
       </c>
       <c r="D20" t="n">
-        <v>527.5012253700606</v>
+        <v>25886.50122537006</v>
       </c>
     </row>
     <row r="21">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36728</v>
+        <v>79488</v>
       </c>
       <c r="C2" t="n">
-        <v>5799.800999999999</v>
+        <v>5597.0385765805</v>
       </c>
       <c r="D2" t="n">
-        <v>30928.199</v>
+        <v>73890.9614234195</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35269</v>
+        <v>75184</v>
       </c>
       <c r="C3" t="n">
-        <v>5649.136500000001</v>
+        <v>5427.810091879</v>
       </c>
       <c r="D3" t="n">
-        <v>29619.8635</v>
+        <v>69756.189908121</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33348</v>
+        <v>71544</v>
       </c>
       <c r="C4" t="n">
-        <v>5554.8325</v>
+        <v>5378.673491737501</v>
       </c>
       <c r="D4" t="n">
-        <v>27793.1675</v>
+        <v>66165.3265082625</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31700</v>
+        <v>69610</v>
       </c>
       <c r="C5" t="n">
-        <v>5481.98</v>
+        <v>5348.731399226001</v>
       </c>
       <c r="D5" t="n">
-        <v>26218.02</v>
+        <v>64261.268600774</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30762</v>
+        <v>70806</v>
       </c>
       <c r="C6" t="n">
-        <v>5456.8815</v>
+        <v>5372.321170922</v>
       </c>
       <c r="D6" t="n">
-        <v>25305.1185</v>
+        <v>65433.678829078</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30953</v>
+        <v>73348</v>
       </c>
       <c r="C7" t="n">
-        <v>5512.395</v>
+        <v>5496.759895401</v>
       </c>
       <c r="D7" t="n">
-        <v>25440.605</v>
+        <v>67851.240104599</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31330</v>
+        <v>78137</v>
       </c>
       <c r="C8" t="n">
-        <v>5765.477227722772</v>
+        <v>6441.069913339</v>
       </c>
       <c r="D8" t="n">
-        <v>25564.52277227723</v>
+        <v>71695.930086661</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32595</v>
+        <v>80939</v>
       </c>
       <c r="C9" t="n">
-        <v>6519.4465</v>
+        <v>7184.668538918501</v>
       </c>
       <c r="D9" t="n">
-        <v>26075.5535</v>
+        <v>73754.3314610815</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36208</v>
+        <v>103039</v>
       </c>
       <c r="C10" t="n">
-        <v>7901.5895</v>
+        <v>8465.353500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>28306.4105</v>
+        <v>94573.6465</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39069</v>
+        <v>114408</v>
       </c>
       <c r="C11" t="n">
-        <v>13052.0005</v>
+        <v>14333.5385</v>
       </c>
       <c r="D11" t="n">
-        <v>26016.9995</v>
+        <v>100074.4615</v>
       </c>
     </row>
     <row r="12">
@@ -588,125 +588,101 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39884</v>
+        <v>96449.10000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>14886.7985</v>
+        <v>15915.495</v>
       </c>
       <c r="D12" t="n">
-        <v>24997.2015</v>
+        <v>80533.60500000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>39218</v>
-      </c>
       <c r="C13" t="n">
-        <v>14810.005</v>
+        <v>15771.6165</v>
       </c>
       <c r="D13" t="n">
-        <v>24407.995</v>
+        <v>103987.3835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>38683</v>
-      </c>
       <c r="C14" t="n">
-        <v>14699.3385</v>
+        <v>15824.06</v>
       </c>
       <c r="D14" t="n">
-        <v>23983.6615</v>
+        <v>76684.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>40878</v>
-      </c>
       <c r="C15" t="n">
-        <v>15357.636</v>
+        <v>15963.6205</v>
       </c>
       <c r="D15" t="n">
-        <v>25520.364</v>
+        <v>103417.3795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>41508</v>
-      </c>
       <c r="C16" t="n">
-        <v>15432.207</v>
+        <v>16132.936</v>
       </c>
       <c r="D16" t="n">
-        <v>26075.793</v>
+        <v>110937.064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>40766</v>
-      </c>
       <c r="C17" t="n">
-        <v>15338.9075</v>
+        <v>16102.835</v>
       </c>
       <c r="D17" t="n">
-        <v>25427.0925</v>
+        <v>87260.16500000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>38994</v>
-      </c>
       <c r="C18" t="n">
-        <v>15792.80217625723</v>
+        <v>16787.6375</v>
       </c>
       <c r="D18" t="n">
-        <v>23201.19782374277</v>
+        <v>81550.3625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>39323</v>
-      </c>
       <c r="C19" t="n">
-        <v>15557.50171551809</v>
+        <v>16403.816</v>
       </c>
       <c r="D19" t="n">
-        <v>23765.49828448191</v>
+        <v>75216.18400000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>41039</v>
-      </c>
       <c r="C20" t="n">
-        <v>15152.49877462994</v>
+        <v>16006.496</v>
       </c>
       <c r="D20" t="n">
-        <v>25886.50122537006</v>
+        <v>71081.504</v>
       </c>
     </row>
     <row r="21">
@@ -714,10 +690,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>13812.90902852661</v>
+        <v>14046.071</v>
       </c>
       <c r="D21" t="n">
-        <v>37817.495</v>
+        <v>69127.929</v>
       </c>
     </row>
     <row r="22">
@@ -725,10 +701,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12007.84432898735</v>
+        <v>11183.005</v>
       </c>
       <c r="D22" t="n">
-        <v>38010.227</v>
+        <v>68523.995</v>
       </c>
     </row>
     <row r="23">
@@ -736,10 +712,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9523.143</v>
+        <v>9240.505000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>38285.2065</v>
+        <v>66852.495</v>
       </c>
     </row>
     <row r="24">
@@ -747,10 +723,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6375.7855</v>
+        <v>6857.7675</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>33754.2325</v>
       </c>
     </row>
     <row r="25">
@@ -758,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5494.996500000001</v>
+        <v>6096.6435</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79488</v>
+        <v>36728</v>
       </c>
       <c r="C2" t="n">
-        <v>5597.0385765805</v>
+        <v>5799.800999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>73890.9614234195</v>
+        <v>30928.199</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75184</v>
+        <v>35269</v>
       </c>
       <c r="C3" t="n">
-        <v>5427.810091879</v>
+        <v>5649.136500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>69756.189908121</v>
+        <v>29619.8635</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71544</v>
+        <v>33348</v>
       </c>
       <c r="C4" t="n">
-        <v>5378.673491737501</v>
+        <v>5554.8325</v>
       </c>
       <c r="D4" t="n">
-        <v>66165.3265082625</v>
+        <v>27793.1675</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69610</v>
+        <v>31700</v>
       </c>
       <c r="C5" t="n">
-        <v>5348.731399226001</v>
+        <v>5481.98</v>
       </c>
       <c r="D5" t="n">
-        <v>64261.268600774</v>
+        <v>26218.02</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70806</v>
+        <v>30762</v>
       </c>
       <c r="C6" t="n">
-        <v>5372.321170922</v>
+        <v>5456.8815</v>
       </c>
       <c r="D6" t="n">
-        <v>65433.678829078</v>
+        <v>25305.1185</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>73348</v>
+        <v>30953</v>
       </c>
       <c r="C7" t="n">
-        <v>5496.759895401</v>
+        <v>5512.395</v>
       </c>
       <c r="D7" t="n">
-        <v>67851.240104599</v>
+        <v>25440.605</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>78137</v>
+        <v>31330</v>
       </c>
       <c r="C8" t="n">
-        <v>6441.069913339</v>
+        <v>5765.477227722772</v>
       </c>
       <c r="D8" t="n">
-        <v>71695.930086661</v>
+        <v>25564.52277227723</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>80939</v>
+        <v>32595</v>
       </c>
       <c r="C9" t="n">
-        <v>7184.668538918501</v>
+        <v>6519.4465</v>
       </c>
       <c r="D9" t="n">
-        <v>73754.3314610815</v>
+        <v>26075.5535</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>103039</v>
+        <v>36208</v>
       </c>
       <c r="C10" t="n">
-        <v>8465.353500000001</v>
+        <v>7901.5895</v>
       </c>
       <c r="D10" t="n">
-        <v>94573.6465</v>
+        <v>28306.4105</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>114408</v>
+        <v>39069</v>
       </c>
       <c r="C11" t="n">
-        <v>14333.5385</v>
+        <v>13052.0005</v>
       </c>
       <c r="D11" t="n">
-        <v>100074.4615</v>
+        <v>26016.9995</v>
       </c>
     </row>
     <row r="12">
@@ -588,112 +588,139 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>96449.10000000001</v>
+        <v>39884</v>
       </c>
       <c r="C12" t="n">
-        <v>15915.495</v>
+        <v>14886.7985</v>
       </c>
       <c r="D12" t="n">
-        <v>80533.60500000001</v>
+        <v>24997.2015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="n">
+        <v>39218</v>
+      </c>
       <c r="C13" t="n">
-        <v>15771.6165</v>
+        <v>14810.005</v>
       </c>
       <c r="D13" t="n">
-        <v>103987.3835</v>
+        <v>24407.995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>38683</v>
+      </c>
       <c r="C14" t="n">
-        <v>15824.06</v>
+        <v>14699.3385</v>
       </c>
       <c r="D14" t="n">
-        <v>76684.94</v>
+        <v>23983.6615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>40878</v>
+      </c>
       <c r="C15" t="n">
-        <v>15963.6205</v>
+        <v>15357.636</v>
       </c>
       <c r="D15" t="n">
-        <v>103417.3795</v>
+        <v>25520.364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>41508</v>
+      </c>
       <c r="C16" t="n">
-        <v>16132.936</v>
+        <v>15432.207</v>
       </c>
       <c r="D16" t="n">
-        <v>110937.064</v>
+        <v>26075.793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>40766</v>
+      </c>
       <c r="C17" t="n">
-        <v>16102.835</v>
+        <v>15338.9075</v>
       </c>
       <c r="D17" t="n">
-        <v>87260.16500000001</v>
+        <v>25427.0925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>38994</v>
+      </c>
       <c r="C18" t="n">
-        <v>16787.6375</v>
+        <v>15792.80217625723</v>
       </c>
       <c r="D18" t="n">
-        <v>81550.3625</v>
+        <v>23201.19782374277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>39323</v>
+      </c>
       <c r="C19" t="n">
-        <v>16403.816</v>
+        <v>15557.50171551809</v>
       </c>
       <c r="D19" t="n">
-        <v>75216.18400000001</v>
+        <v>23765.49828448191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>41039</v>
+      </c>
       <c r="C20" t="n">
-        <v>16006.496</v>
+        <v>15152.49877462994</v>
       </c>
       <c r="D20" t="n">
-        <v>71081.504</v>
+        <v>25886.50122537006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>15333</v>
+      </c>
       <c r="C21" t="n">
-        <v>14046.071</v>
+        <v>13812.90902852661</v>
       </c>
       <c r="D21" t="n">
-        <v>69127.929</v>
+        <v>1520.09097147339</v>
       </c>
     </row>
     <row r="22">
@@ -701,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11183.005</v>
+        <v>12007.84432898735</v>
       </c>
       <c r="D22" t="n">
         <v>68523.995</v>
@@ -712,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9240.505000000001</v>
+        <v>9523.143</v>
       </c>
       <c r="D23" t="n">
         <v>66852.495</v>
@@ -723,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6857.7675</v>
+        <v>6375.7855</v>
       </c>
       <c r="D24" t="n">
         <v>33754.2325</v>
@@ -734,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6096.6435</v>
+        <v>5494.996500000001</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36728</v>
+        <v>79488</v>
       </c>
       <c r="C2" t="n">
-        <v>5799.800999999999</v>
+        <v>5597.0385765805</v>
       </c>
       <c r="D2" t="n">
-        <v>30928.199</v>
+        <v>73890.9614234195</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35269</v>
+        <v>75184</v>
       </c>
       <c r="C3" t="n">
-        <v>5649.136500000001</v>
+        <v>5427.810091879</v>
       </c>
       <c r="D3" t="n">
-        <v>29619.8635</v>
+        <v>69756.189908121</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33348</v>
+        <v>71544</v>
       </c>
       <c r="C4" t="n">
-        <v>5554.8325</v>
+        <v>5378.673491737501</v>
       </c>
       <c r="D4" t="n">
-        <v>27793.1675</v>
+        <v>66165.3265082625</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31700</v>
+        <v>69610</v>
       </c>
       <c r="C5" t="n">
-        <v>5481.98</v>
+        <v>5348.731399226001</v>
       </c>
       <c r="D5" t="n">
-        <v>26218.02</v>
+        <v>64261.268600774</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30762</v>
+        <v>70806</v>
       </c>
       <c r="C6" t="n">
-        <v>5456.8815</v>
+        <v>5372.321170922</v>
       </c>
       <c r="D6" t="n">
-        <v>25305.1185</v>
+        <v>65433.678829078</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30953</v>
+        <v>73348</v>
       </c>
       <c r="C7" t="n">
-        <v>5512.395</v>
+        <v>5496.759895401</v>
       </c>
       <c r="D7" t="n">
-        <v>25440.605</v>
+        <v>67851.240104599</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31330</v>
+        <v>78137</v>
       </c>
       <c r="C8" t="n">
-        <v>5765.477227722772</v>
+        <v>6441.069913339</v>
       </c>
       <c r="D8" t="n">
-        <v>25564.52277227723</v>
+        <v>71695.930086661</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32595</v>
+        <v>80939</v>
       </c>
       <c r="C9" t="n">
-        <v>6519.4465</v>
+        <v>7184.668538918501</v>
       </c>
       <c r="D9" t="n">
-        <v>26075.5535</v>
+        <v>73754.3314610815</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36208</v>
+        <v>103039</v>
       </c>
       <c r="C10" t="n">
-        <v>7901.5895</v>
+        <v>8465.353500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>28306.4105</v>
+        <v>94573.6465</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39069</v>
+        <v>114408</v>
       </c>
       <c r="C11" t="n">
-        <v>13052.0005</v>
+        <v>14333.5385</v>
       </c>
       <c r="D11" t="n">
-        <v>26016.9995</v>
+        <v>100074.4615</v>
       </c>
     </row>
     <row r="12">
@@ -588,139 +588,112 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39884</v>
+        <v>96449.10000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>14886.7985</v>
+        <v>15915.495</v>
       </c>
       <c r="D12" t="n">
-        <v>24997.2015</v>
+        <v>80533.60500000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>39218</v>
-      </c>
       <c r="C13" t="n">
-        <v>14810.005</v>
+        <v>15771.6165</v>
       </c>
       <c r="D13" t="n">
-        <v>24407.995</v>
+        <v>103987.3835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>38683</v>
-      </c>
       <c r="C14" t="n">
-        <v>14699.3385</v>
+        <v>15824.06</v>
       </c>
       <c r="D14" t="n">
-        <v>23983.6615</v>
+        <v>76684.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>40878</v>
-      </c>
       <c r="C15" t="n">
-        <v>15357.636</v>
+        <v>15963.6205</v>
       </c>
       <c r="D15" t="n">
-        <v>25520.364</v>
+        <v>103417.3795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>41508</v>
-      </c>
       <c r="C16" t="n">
-        <v>15432.207</v>
+        <v>16132.936</v>
       </c>
       <c r="D16" t="n">
-        <v>26075.793</v>
+        <v>110937.064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>40766</v>
-      </c>
       <c r="C17" t="n">
-        <v>15338.9075</v>
+        <v>16102.835</v>
       </c>
       <c r="D17" t="n">
-        <v>25427.0925</v>
+        <v>87260.16500000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>38994</v>
-      </c>
       <c r="C18" t="n">
-        <v>15792.80217625723</v>
+        <v>16787.6375</v>
       </c>
       <c r="D18" t="n">
-        <v>23201.19782374277</v>
+        <v>81550.3625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>39323</v>
-      </c>
       <c r="C19" t="n">
-        <v>15557.50171551809</v>
+        <v>16403.816</v>
       </c>
       <c r="D19" t="n">
-        <v>23765.49828448191</v>
+        <v>75216.18400000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>41039</v>
-      </c>
       <c r="C20" t="n">
-        <v>15152.49877462994</v>
+        <v>16006.496</v>
       </c>
       <c r="D20" t="n">
-        <v>25886.50122537006</v>
+        <v>71081.504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>15333</v>
-      </c>
       <c r="C21" t="n">
-        <v>13812.90902852661</v>
+        <v>14046.071</v>
       </c>
       <c r="D21" t="n">
-        <v>1520.09097147339</v>
+        <v>69127.929</v>
       </c>
     </row>
     <row r="22">
@@ -728,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12007.84432898735</v>
+        <v>11183.005</v>
       </c>
       <c r="D22" t="n">
         <v>68523.995</v>
@@ -739,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>9523.143</v>
+        <v>9240.505000000001</v>
       </c>
       <c r="D23" t="n">
         <v>66852.495</v>
@@ -750,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6375.7855</v>
+        <v>6857.7675</v>
       </c>
       <c r="D24" t="n">
         <v>33754.2325</v>
@@ -761,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5494.996500000001</v>
+        <v>6096.6435</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79488</v>
+        <v>36728</v>
       </c>
       <c r="C2" t="n">
-        <v>5597.0385765805</v>
+        <v>5799.800999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>73890.9614234195</v>
+        <v>30928.199</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75184</v>
+        <v>35269</v>
       </c>
       <c r="C3" t="n">
-        <v>5427.810091879</v>
+        <v>5649.136500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>69756.189908121</v>
+        <v>29619.8635</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71544</v>
+        <v>33348</v>
       </c>
       <c r="C4" t="n">
-        <v>5378.673491737501</v>
+        <v>5554.8325</v>
       </c>
       <c r="D4" t="n">
-        <v>66165.3265082625</v>
+        <v>27793.1675</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69610</v>
+        <v>31700</v>
       </c>
       <c r="C5" t="n">
-        <v>5348.731399226001</v>
+        <v>5481.98</v>
       </c>
       <c r="D5" t="n">
-        <v>64261.268600774</v>
+        <v>26218.02</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70806</v>
+        <v>30762</v>
       </c>
       <c r="C6" t="n">
-        <v>5372.321170922</v>
+        <v>5456.8815</v>
       </c>
       <c r="D6" t="n">
-        <v>65433.678829078</v>
+        <v>25305.1185</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>73348</v>
+        <v>30953</v>
       </c>
       <c r="C7" t="n">
-        <v>5496.759895401</v>
+        <v>5512.395</v>
       </c>
       <c r="D7" t="n">
-        <v>67851.240104599</v>
+        <v>25440.605</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>78137</v>
+        <v>31330</v>
       </c>
       <c r="C8" t="n">
-        <v>6441.069913339</v>
+        <v>5765.477227722772</v>
       </c>
       <c r="D8" t="n">
-        <v>71695.930086661</v>
+        <v>25564.52277227723</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>80939</v>
+        <v>32595</v>
       </c>
       <c r="C9" t="n">
-        <v>7184.668538918501</v>
+        <v>6519.4465</v>
       </c>
       <c r="D9" t="n">
-        <v>73754.3314610815</v>
+        <v>26075.5535</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>103039</v>
+        <v>36208</v>
       </c>
       <c r="C10" t="n">
-        <v>8465.353500000001</v>
+        <v>7901.5895</v>
       </c>
       <c r="D10" t="n">
-        <v>94573.6465</v>
+        <v>28306.4105</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>114408</v>
+        <v>39069</v>
       </c>
       <c r="C11" t="n">
-        <v>14333.5385</v>
+        <v>13052.0005</v>
       </c>
       <c r="D11" t="n">
-        <v>100074.4615</v>
+        <v>26016.9995</v>
       </c>
     </row>
     <row r="12">
@@ -588,145 +588,181 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>96449.10000000001</v>
+        <v>39884</v>
       </c>
       <c r="C12" t="n">
-        <v>15915.495</v>
+        <v>14886.7985</v>
       </c>
       <c r="D12" t="n">
-        <v>80533.60500000001</v>
+        <v>24997.2015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="n">
+        <v>39218</v>
+      </c>
       <c r="C13" t="n">
-        <v>15771.6165</v>
+        <v>14810.005</v>
       </c>
       <c r="D13" t="n">
-        <v>103987.3835</v>
+        <v>24407.995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>38683</v>
+      </c>
       <c r="C14" t="n">
-        <v>15824.06</v>
+        <v>14699.3385</v>
       </c>
       <c r="D14" t="n">
-        <v>76684.94</v>
+        <v>23983.6615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>40878</v>
+      </c>
       <c r="C15" t="n">
-        <v>15963.6205</v>
+        <v>15357.636</v>
       </c>
       <c r="D15" t="n">
-        <v>103417.3795</v>
+        <v>25520.364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>41508</v>
+      </c>
       <c r="C16" t="n">
-        <v>16132.936</v>
+        <v>15432.207</v>
       </c>
       <c r="D16" t="n">
-        <v>110937.064</v>
+        <v>26075.793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>40766</v>
+      </c>
       <c r="C17" t="n">
-        <v>16102.835</v>
+        <v>15338.9075</v>
       </c>
       <c r="D17" t="n">
-        <v>87260.16500000001</v>
+        <v>25427.0925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>38994</v>
+      </c>
       <c r="C18" t="n">
-        <v>16787.6375</v>
+        <v>15792.80217625723</v>
       </c>
       <c r="D18" t="n">
-        <v>81550.3625</v>
+        <v>23201.19782374277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>39323</v>
+      </c>
       <c r="C19" t="n">
-        <v>16403.816</v>
+        <v>15557.50171551809</v>
       </c>
       <c r="D19" t="n">
-        <v>75216.18400000001</v>
+        <v>23765.49828448191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>41039</v>
+      </c>
       <c r="C20" t="n">
-        <v>16006.496</v>
+        <v>15152.49877462994</v>
       </c>
       <c r="D20" t="n">
-        <v>71081.504</v>
+        <v>25886.50122537006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>38646</v>
+      </c>
       <c r="C21" t="n">
-        <v>14046.071</v>
+        <v>13812.90902852661</v>
       </c>
       <c r="D21" t="n">
-        <v>69127.929</v>
+        <v>24833.09097147339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>38253</v>
+      </c>
       <c r="C22" t="n">
-        <v>11183.005</v>
+        <v>12007.84432898735</v>
       </c>
       <c r="D22" t="n">
-        <v>68523.995</v>
+        <v>26245.15567101265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>38679</v>
+      </c>
       <c r="C23" t="n">
-        <v>9240.505000000001</v>
+        <v>9523.143</v>
       </c>
       <c r="D23" t="n">
-        <v>66852.495</v>
+        <v>29155.857</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
+      <c r="B24" t="n">
+        <v>38098</v>
+      </c>
       <c r="C24" t="n">
-        <v>6857.7675</v>
+        <v>6375.7855</v>
       </c>
       <c r="D24" t="n">
-        <v>33754.2325</v>
+        <v>31722.2145</v>
       </c>
     </row>
     <row r="25">
@@ -734,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6096.6435</v>
+        <v>5494.996500000001</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36728</v>
+        <v>34468</v>
       </c>
       <c r="C2" t="n">
-        <v>5799.800999999999</v>
+        <v>5345.119500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>30928.199</v>
+        <v>29122.8805</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35269</v>
+        <v>32829</v>
       </c>
       <c r="C3" t="n">
-        <v>5649.136500000001</v>
+        <v>5206.159000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>29619.8635</v>
+        <v>27622.841</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33348</v>
+        <v>31904</v>
       </c>
       <c r="C4" t="n">
-        <v>5554.8325</v>
+        <v>5135.557000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>27793.1675</v>
+        <v>26768.443</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31700</v>
+        <v>30639</v>
       </c>
       <c r="C5" t="n">
-        <v>5481.98</v>
+        <v>5020.333500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>26218.02</v>
+        <v>25618.6665</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30762</v>
+        <v>26439</v>
       </c>
       <c r="C6" t="n">
-        <v>5456.8815</v>
+        <v>5000.597</v>
       </c>
       <c r="D6" t="n">
-        <v>25305.1185</v>
+        <v>21438.403</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30953</v>
+        <v>29942</v>
       </c>
       <c r="C7" t="n">
-        <v>5512.395</v>
+        <v>5159.224</v>
       </c>
       <c r="D7" t="n">
-        <v>25440.605</v>
+        <v>24782.776</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31330</v>
+        <v>29316</v>
       </c>
       <c r="C8" t="n">
-        <v>5765.477227722772</v>
+        <v>5913.0995</v>
       </c>
       <c r="D8" t="n">
-        <v>25564.52277227723</v>
+        <v>23402.9005</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32595</v>
+        <v>30129</v>
       </c>
       <c r="C9" t="n">
-        <v>6519.4465</v>
+        <v>6556.798500000001</v>
       </c>
       <c r="D9" t="n">
-        <v>26075.5535</v>
+        <v>23572.2015</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36208</v>
+        <v>32400</v>
       </c>
       <c r="C10" t="n">
-        <v>7901.5895</v>
+        <v>7870.904999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>28306.4105</v>
+        <v>24529.095</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39069</v>
+        <v>12258</v>
       </c>
       <c r="C11" t="n">
-        <v>13052.0005</v>
+        <v>13169.898</v>
       </c>
       <c r="D11" t="n">
-        <v>26016.9995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -588,181 +588,145 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39884</v>
+        <v>6128</v>
       </c>
       <c r="C12" t="n">
-        <v>14886.7985</v>
+        <v>15125.579</v>
       </c>
       <c r="D12" t="n">
-        <v>24997.2015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>39218</v>
-      </c>
       <c r="C13" t="n">
-        <v>14810.005</v>
+        <v>14795.5535</v>
       </c>
       <c r="D13" t="n">
-        <v>24407.995</v>
+        <v>24422.4465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>38683</v>
-      </c>
       <c r="C14" t="n">
-        <v>14699.3385</v>
+        <v>15027.4215</v>
       </c>
       <c r="D14" t="n">
-        <v>23983.6615</v>
+        <v>23655.5785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>40878</v>
-      </c>
       <c r="C15" t="n">
-        <v>15357.636</v>
+        <v>15238.5275</v>
       </c>
       <c r="D15" t="n">
-        <v>25520.364</v>
+        <v>25639.4725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>41508</v>
-      </c>
       <c r="C16" t="n">
-        <v>15432.207</v>
+        <v>15218.588</v>
       </c>
       <c r="D16" t="n">
-        <v>26075.793</v>
+        <v>26289.412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>40766</v>
-      </c>
       <c r="C17" t="n">
-        <v>15338.9075</v>
+        <v>15079.778</v>
       </c>
       <c r="D17" t="n">
-        <v>25427.0925</v>
+        <v>25686.222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>38994</v>
-      </c>
       <c r="C18" t="n">
-        <v>15792.80217625723</v>
+        <v>15600.9735</v>
       </c>
       <c r="D18" t="n">
-        <v>23201.19782374277</v>
+        <v>23393.0265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>39323</v>
-      </c>
       <c r="C19" t="n">
-        <v>15557.50171551809</v>
+        <v>15471.0605</v>
       </c>
       <c r="D19" t="n">
-        <v>23765.49828448191</v>
+        <v>23851.9395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>41039</v>
-      </c>
       <c r="C20" t="n">
-        <v>15152.49877462994</v>
+        <v>15033.3155</v>
       </c>
       <c r="D20" t="n">
-        <v>25886.50122537006</v>
+        <v>26005.6845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>38646</v>
-      </c>
       <c r="C21" t="n">
-        <v>13812.90902852661</v>
+        <v>13476.9705</v>
       </c>
       <c r="D21" t="n">
-        <v>24833.09097147339</v>
+        <v>25169.0295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>38253</v>
-      </c>
       <c r="C22" t="n">
-        <v>12007.84432898735</v>
+        <v>11646.733</v>
       </c>
       <c r="D22" t="n">
-        <v>26245.15567101265</v>
+        <v>26606.267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>38679</v>
-      </c>
       <c r="C23" t="n">
-        <v>9523.143</v>
+        <v>9235.5095</v>
       </c>
       <c r="D23" t="n">
-        <v>29155.857</v>
+        <v>29443.4905</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>38098</v>
-      </c>
       <c r="C24" t="n">
-        <v>6375.7855</v>
+        <v>6356.336</v>
       </c>
       <c r="D24" t="n">
-        <v>31722.2145</v>
+        <v>31741.664</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5494.996500000001</v>
+        <v>5313.4375</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12258</v>
+        <v>32621</v>
       </c>
       <c r="C11" t="n">
         <v>13169.898</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>19451.102</v>
       </c>
     </row>
     <row r="12">
@@ -588,134 +588,167 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6128</v>
+        <v>33187</v>
       </c>
       <c r="C12" t="n">
         <v>15125.579</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>18061.421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
+      <c r="B13" t="n">
+        <v>32997</v>
+      </c>
       <c r="C13" t="n">
         <v>14795.5535</v>
       </c>
       <c r="D13" t="n">
-        <v>24422.4465</v>
+        <v>18201.4465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
+      <c r="B14" t="n">
+        <v>34647</v>
+      </c>
       <c r="C14" t="n">
         <v>15027.4215</v>
       </c>
       <c r="D14" t="n">
-        <v>23655.5785</v>
+        <v>19619.5785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
+      <c r="B15" t="n">
+        <v>35793</v>
+      </c>
       <c r="C15" t="n">
         <v>15238.5275</v>
       </c>
       <c r="D15" t="n">
-        <v>25639.4725</v>
+        <v>20554.4725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
+      <c r="B16" t="n">
+        <v>37060</v>
+      </c>
       <c r="C16" t="n">
         <v>15218.588</v>
       </c>
       <c r="D16" t="n">
-        <v>26289.412</v>
+        <v>21841.412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="n">
+        <v>37376</v>
+      </c>
       <c r="C17" t="n">
         <v>15079.778</v>
       </c>
       <c r="D17" t="n">
-        <v>25686.222</v>
+        <v>22296.222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="n">
+        <v>37480</v>
+      </c>
       <c r="C18" t="n">
         <v>15600.9735</v>
       </c>
       <c r="D18" t="n">
-        <v>23393.0265</v>
+        <v>21879.0265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="n">
+        <v>40256</v>
+      </c>
       <c r="C19" t="n">
         <v>15471.0605</v>
       </c>
       <c r="D19" t="n">
-        <v>23851.9395</v>
+        <v>24784.9395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="n">
+        <v>42234</v>
+      </c>
       <c r="C20" t="n">
         <v>15033.3155</v>
       </c>
       <c r="D20" t="n">
-        <v>26005.6845</v>
+        <v>27200.6845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="n">
+        <v>40306</v>
+      </c>
       <c r="C21" t="n">
         <v>13476.9705</v>
       </c>
       <c r="D21" t="n">
-        <v>25169.0295</v>
+        <v>26829.0295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>40825</v>
+      </c>
       <c r="C22" t="n">
         <v>11646.733</v>
       </c>
       <c r="D22" t="n">
-        <v>26606.267</v>
+        <v>29178.267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
+      <c r="B23" t="n">
+        <v>41147</v>
+      </c>
       <c r="C23" t="n">
         <v>9235.5095</v>
       </c>
       <c r="D23" t="n">
-        <v>29443.4905</v>
+        <v>31911.4905</v>
       </c>
     </row>
     <row r="24">

--- a/actual_energy.xlsx
+++ b/actual_energy.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>34468</v>
+        <v>36512</v>
       </c>
       <c r="C2" t="n">
-        <v>5345.119500000001</v>
+        <v>5300.240519268225</v>
       </c>
       <c r="D2" t="n">
-        <v>29122.8805</v>
+        <v>31211.75948073177</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>32829</v>
+        <v>36934</v>
       </c>
       <c r="C3" t="n">
-        <v>5206.159000000001</v>
+        <v>5231.744084870154</v>
       </c>
       <c r="D3" t="n">
-        <v>27622.841</v>
+        <v>31702.25591512984</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31904</v>
+        <v>33332</v>
       </c>
       <c r="C4" t="n">
-        <v>5135.557000000001</v>
+        <v>5172.964514112086</v>
       </c>
       <c r="D4" t="n">
-        <v>26768.443</v>
+        <v>28159.03548588791</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30639</v>
+        <v>31733</v>
       </c>
       <c r="C5" t="n">
-        <v>5020.333500000001</v>
+        <v>5075.946323680449</v>
       </c>
       <c r="D5" t="n">
-        <v>25618.6665</v>
+        <v>26657.05367631955</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26439</v>
+        <v>32493</v>
       </c>
       <c r="C6" t="n">
-        <v>5000.597</v>
+        <v>5154.323713302019</v>
       </c>
       <c r="D6" t="n">
-        <v>21438.403</v>
+        <v>27338.67628669798</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29942</v>
+        <v>39285</v>
       </c>
       <c r="C7" t="n">
-        <v>5159.224</v>
+        <v>5316.20017362459</v>
       </c>
       <c r="D7" t="n">
-        <v>24782.776</v>
+        <v>33968.79982637541</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29316</v>
+        <v>37768</v>
       </c>
       <c r="C8" t="n">
-        <v>5913.0995</v>
+        <v>6026.937022946369</v>
       </c>
       <c r="D8" t="n">
-        <v>23402.9005</v>
+        <v>31741.06297705363</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30129</v>
+        <v>37333</v>
       </c>
       <c r="C9" t="n">
-        <v>6556.798500000001</v>
+        <v>7195.731826323759</v>
       </c>
       <c r="D9" t="n">
-        <v>23572.2015</v>
+        <v>30137.26817367624</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32400</v>
+        <v>43902</v>
       </c>
       <c r="C10" t="n">
-        <v>7870.904999999999</v>
+        <v>8933.125360504302</v>
       </c>
       <c r="D10" t="n">
-        <v>24529.095</v>
+        <v>34968.8746394957</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32621</v>
+        <v>48587</v>
       </c>
       <c r="C11" t="n">
-        <v>13169.898</v>
+        <v>14753.13129895921</v>
       </c>
       <c r="D11" t="n">
-        <v>19451.102</v>
+        <v>33833.86870104079</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33187</v>
+        <v>49096</v>
       </c>
       <c r="C12" t="n">
-        <v>15125.579</v>
+        <v>15709.74841693614</v>
       </c>
       <c r="D12" t="n">
-        <v>18061.421</v>
+        <v>33386.25158306386</v>
       </c>
     </row>
     <row r="13">
@@ -602,24 +602,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32997</v>
+        <v>50494</v>
       </c>
       <c r="C13" t="n">
-        <v>14795.5535</v>
+        <v>15288.48267560654</v>
       </c>
       <c r="D13" t="n">
-        <v>18201.4465</v>
+        <v>35205.51732439346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>34647</v>
-      </c>
       <c r="C14" t="n">
-        <v>15027.4215</v>
+        <v>15654.78597751751</v>
       </c>
       <c r="D14" t="n">
         <v>19619.5785</v>
@@ -629,11 +626,8 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>35793</v>
-      </c>
       <c r="C15" t="n">
-        <v>15238.5275</v>
+        <v>15297.69344373566</v>
       </c>
       <c r="D15" t="n">
         <v>20554.4725</v>
@@ -643,11 +637,8 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>37060</v>
-      </c>
       <c r="C16" t="n">
-        <v>15218.588</v>
+        <v>15177.95255693069</v>
       </c>
       <c r="D16" t="n">
         <v>21841.412</v>
@@ -657,11 +648,8 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>37376</v>
-      </c>
       <c r="C17" t="n">
-        <v>15079.778</v>
+        <v>15377.06720297029</v>
       </c>
       <c r="D17" t="n">
         <v>22296.222</v>
@@ -671,11 +659,8 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>37480</v>
-      </c>
       <c r="C18" t="n">
-        <v>15600.9735</v>
+        <v>15674.89670937682</v>
       </c>
       <c r="D18" t="n">
         <v>21879.0265</v>
@@ -685,11 +670,8 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>40256</v>
-      </c>
       <c r="C19" t="n">
-        <v>15471.0605</v>
+        <v>15609.91385653271</v>
       </c>
       <c r="D19" t="n">
         <v>24784.9395</v>
@@ -699,11 +681,8 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>42234</v>
-      </c>
       <c r="C20" t="n">
-        <v>15033.3155</v>
+        <v>14847.04867986798</v>
       </c>
       <c r="D20" t="n">
         <v>27200.6845</v>
@@ -713,11 +692,8 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>40306</v>
-      </c>
       <c r="C21" t="n">
-        <v>13476.9705</v>
+        <v>13458.84194331198</v>
       </c>
       <c r="D21" t="n">
         <v>26829.0295</v>
@@ -727,11 +703,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>40825</v>
-      </c>
       <c r="C22" t="n">
-        <v>11646.733</v>
+        <v>11737.29170064065</v>
       </c>
       <c r="D22" t="n">
         <v>29178.267</v>
@@ -741,11 +714,8 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>41147</v>
-      </c>
       <c r="C23" t="n">
-        <v>9235.5095</v>
+        <v>8464.465734808773</v>
       </c>
       <c r="D23" t="n">
         <v>31911.4905</v>
@@ -756,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6356.336</v>
+        <v>6243.212205882352</v>
       </c>
       <c r="D24" t="n">
         <v>31741.664</v>
@@ -767,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5313.4375</v>
+        <v>5717.465749999999</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
